--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_6_23.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_6_23.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1284288.603604386</v>
+        <v>1278566.9916365</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6654055.582836237</v>
+        <v>6654055.582836238</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>806345.8827095096</v>
+        <v>806345.8827095093</v>
       </c>
     </row>
     <row r="9">
@@ -658,16 +658,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>138.3038958997682</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -676,7 +676,7 @@
         <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>276.5855197167252</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -712,7 +712,7 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -724,10 +724,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -819,25 +819,25 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>59.66385641544559</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -861,13 +861,13 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>200.5196897930038</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -895,13 +895,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>61.75656432199267</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -955,13 +955,13 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>5.791117132838708</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -1056,19 +1056,19 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>148.8271244776258</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>11.90975838011561</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1119,10 +1119,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1138,7 +1138,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>84.53754774285326</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1147,13 +1147,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>17.02555585116066</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
@@ -1195,7 +1195,7 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -1293,28 +1293,28 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>6.59601561836874</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>14.46389722690839</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1353,10 +1353,10 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1390,7 +1390,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292547</v>
+        <v>41.57692977292636</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1469,7 +1469,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I12" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,10 +1496,10 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734107401</v>
       </c>
       <c r="S12" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T12" t="n">
         <v>190.7165703189231</v>
@@ -1527,19 +1527,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>98.7649239448572</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>122.494369629079</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>166.0258082590282</v>
@@ -1548,7 +1548,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,28 +1575,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1627,7 +1627,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292636</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>109.187761788176</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T14" t="n">
         <v>203.9179701396201</v>
@@ -1706,7 +1706,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,10 +1733,10 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S15" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T15" t="n">
         <v>190.7165703189231</v>
@@ -1770,22 +1770,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>74.7576914549245</v>
       </c>
       <c r="G16" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>58.94105219632027</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,13 +1812,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S16" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U16" t="n">
         <v>286.2118382056129</v>
@@ -1830,7 +1830,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1864,7 +1864,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1900,7 +1900,7 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U17" t="n">
-        <v>250.995171958902</v>
+        <v>250.9951719589025</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -1943,7 +1943,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I18" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1970,10 +1970,10 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734107401</v>
       </c>
       <c r="S18" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T18" t="n">
         <v>190.7165703189231</v>
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>163.6898441249715</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2052,7 +2052,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>173.6268892744757</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
         <v>219.5489492761692</v>
@@ -2101,7 +2101,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2134,7 +2134,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T20" t="n">
-        <v>203.917970139621</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U20" t="n">
         <v>250.995171958902</v>
@@ -2180,7 +2180,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I21" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2207,10 +2207,10 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S21" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T21" t="n">
         <v>190.7165703189231</v>
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2247,13 +2247,13 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S22" t="n">
         <v>189.7690253314419</v>
@@ -2295,7 +2295,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U22" t="n">
-        <v>181.1375494785995</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2304,10 +2304,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>61.17118126752781</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2338,7 +2338,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I23" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2417,7 +2417,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I24" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2444,10 +2444,10 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734107401</v>
       </c>
       <c r="S24" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T24" t="n">
         <v>190.7165703189231</v>
@@ -2475,28 +2475,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>99.72921986893193</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2526,10 +2526,10 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>203.4068132192033</v>
       </c>
       <c r="U25" t="n">
         <v>286.2118382056129</v>
@@ -2541,7 +2541,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2575,7 +2575,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I26" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292547</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2654,7 +2654,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I27" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2681,10 +2681,10 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S27" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T27" t="n">
         <v>190.7165703189231</v>
@@ -2712,25 +2712,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>163.6898441249715</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2763,16 +2763,16 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V28" t="n">
-        <v>179.0530003794242</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2806,7 +2806,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>410.9217256534538</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H29" t="n">
         <v>294.6077643873205</v>
@@ -2918,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S30" t="n">
         <v>128.1435076414547</v>
@@ -2958,19 +2958,19 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>189.7690253314419</v>
+        <v>187.4330611973848</v>
       </c>
       <c r="T31" t="n">
         <v>219.5489492761692</v>
@@ -3018,7 +3018,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>50.5559617506116</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3155,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S33" t="n">
         <v>128.1435076414547</v>
@@ -3186,10 +3186,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>87.22506181228437</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -3249,7 +3249,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>193.916079966938</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -3322,7 +3322,7 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U35" t="n">
-        <v>250.995171958902</v>
+        <v>250.9951719589025</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3392,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S36" t="n">
         <v>128.1435076414547</v>
@@ -3429,22 +3429,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>135.4052567697571</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>166.0258082590282</v>
+        <v>117.8851827056785</v>
       </c>
       <c r="H37" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,13 +3471,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U37" t="n">
         <v>286.2118382056129</v>
@@ -3523,7 +3523,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I38" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292636</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3602,7 +3602,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I39" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3629,10 +3629,10 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S39" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T39" t="n">
         <v>190.7165703189231</v>
@@ -3663,19 +3663,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>15.32691334752884</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3708,19 +3708,19 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T40" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>270.069702148647</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -3760,7 +3760,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I41" t="n">
-        <v>41.57692977292636</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3796,7 +3796,7 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U41" t="n">
-        <v>250.995171958902</v>
+        <v>250.9951719589025</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3839,7 +3839,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I42" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S42" t="n">
         <v>128.1435076414547</v>
@@ -3897,28 +3897,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>15.0743711067587</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3948,19 +3948,19 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>203.1977700471494</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -4143,19 +4143,19 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>166.0258082590282</v>
+        <v>119.1056687634345</v>
       </c>
       <c r="H46" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S46" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>219.5489492761692</v>
@@ -4194,16 +4194,16 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V46" t="n">
-        <v>221.9468848847971</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1315.737983561872</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="C2" t="n">
-        <v>1315.737983561872</v>
+        <v>2107.607341885688</v>
       </c>
       <c r="D2" t="n">
-        <v>1315.737983561872</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="E2" t="n">
-        <v>1315.737983561872</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F2" t="n">
-        <v>904.7520787722649</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G2" t="n">
-        <v>486.7882706704518</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
         <v>207.4089578252748</v>
@@ -4333,10 +4333,10 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4360,22 +4360,22 @@
         <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2465.942913862886</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2465.942913862886</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="V2" t="n">
-        <v>2465.942913862886</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="W2" t="n">
-        <v>2465.942913862886</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="X2" t="n">
-        <v>2092.477155601806</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="Y2" t="n">
-        <v>1702.337823625994</v>
+        <v>2247.308246834948</v>
       </c>
     </row>
     <row r="3">
@@ -4385,46 +4385,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
         <v>2525.076107152626</v>
@@ -4448,10 +4448,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4464,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>348.0202652891861</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="C4" t="n">
-        <v>348.0202652891861</v>
+        <v>667.8624625746712</v>
       </c>
       <c r="D4" t="n">
-        <v>348.0202652891861</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="E4" t="n">
-        <v>348.0202652891861</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="F4" t="n">
-        <v>348.0202652891861</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G4" t="n">
-        <v>348.0202652891861</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
         <v>53.94298182036445</v>
@@ -4509,31 +4509,31 @@
         <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>550.5654064942404</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>348.0202652891861</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T4" t="n">
-        <v>348.0202652891861</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U4" t="n">
-        <v>348.0202652891861</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V4" t="n">
-        <v>348.0202652891861</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W4" t="n">
-        <v>348.0202652891861</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X4" t="n">
-        <v>348.0202652891861</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y4" t="n">
-        <v>348.0202652891861</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="5">
@@ -4543,10 +4543,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1331.061315312042</v>
+        <v>1995.909162857192</v>
       </c>
       <c r="C5" t="n">
-        <v>1331.061315312042</v>
+        <v>1626.94664591678</v>
       </c>
       <c r="D5" t="n">
         <v>1268.68094731003</v>
@@ -4570,10 +4570,10 @@
         <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4603,16 +4603,16 @@
         <v>2388.358616186807</v>
       </c>
       <c r="V5" t="n">
-        <v>2057.295728843236</v>
+        <v>2382.509002921313</v>
       </c>
       <c r="W5" t="n">
-        <v>1704.527073573122</v>
+        <v>2382.509002921313</v>
       </c>
       <c r="X5" t="n">
-        <v>1331.061315312042</v>
+        <v>2382.509002921313</v>
       </c>
       <c r="Y5" t="n">
-        <v>1331.061315312042</v>
+        <v>2382.509002921313</v>
       </c>
     </row>
     <row r="6">
@@ -4658,13 +4658,13 @@
         <v>1237.953133915166</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>249.9299350185087</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="C7" t="n">
-        <v>249.9299350185087</v>
+        <v>529.7758821321493</v>
       </c>
       <c r="D7" t="n">
-        <v>249.9299350185087</v>
+        <v>529.7758821321493</v>
       </c>
       <c r="E7" t="n">
-        <v>249.9299350185087</v>
+        <v>381.8627885497561</v>
       </c>
       <c r="F7" t="n">
-        <v>249.9299350185087</v>
+        <v>234.9728410518458</v>
       </c>
       <c r="G7" t="n">
-        <v>99.59950625323012</v>
+        <v>65.9730407901782</v>
       </c>
       <c r="H7" t="n">
-        <v>99.59950625323012</v>
+        <v>65.9730407901782</v>
       </c>
       <c r="I7" t="n">
-        <v>99.59950625323012</v>
+        <v>65.9730407901782</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4767,10 +4767,10 @@
         <v>698.7120650600561</v>
       </c>
       <c r="X7" t="n">
-        <v>470.7225141620388</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="Y7" t="n">
-        <v>249.9299350185087</v>
+        <v>698.7120650600561</v>
       </c>
     </row>
     <row r="8">
@@ -4780,31 +4780,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1723.03492661696</v>
+        <v>2075.803581887074</v>
       </c>
       <c r="C8" t="n">
-        <v>1354.072409676548</v>
+        <v>1706.841064946663</v>
       </c>
       <c r="D8" t="n">
-        <v>1268.68094731003</v>
+        <v>1348.575366339912</v>
       </c>
       <c r="E8" t="n">
-        <v>882.8926947117852</v>
+        <v>962.787113741668</v>
       </c>
       <c r="F8" t="n">
-        <v>471.9067899221776</v>
+        <v>551.8012089520605</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K8" t="n">
         <v>463.9616490733129</v>
@@ -4822,10 +4822,10 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
         <v>2642.120401548716</v>
@@ -4843,13 +4843,13 @@
         <v>2465.942913862886</v>
       </c>
       <c r="W8" t="n">
-        <v>2113.174258592771</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="X8" t="n">
-        <v>2113.174258592771</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="Y8" t="n">
-        <v>1723.03492661696</v>
+        <v>2075.803581887074</v>
       </c>
     </row>
     <row r="9">
@@ -4880,28 +4880,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>210.7222632714565</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="C10" t="n">
-        <v>204.0596212327002</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036445</v>
+        <v>578.0123447940986</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036445</v>
+        <v>430.0992512117055</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036445</v>
+        <v>283.2093037137951</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>114.2095034521275</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>114.2095034521275</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
         <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.60403885025</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594902</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="W10" t="n">
-        <v>438.7118141694738</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="X10" t="n">
-        <v>210.7222632714565</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Y10" t="n">
-        <v>210.7222632714565</v>
+        <v>728.1289842064343</v>
       </c>
     </row>
     <row r="11">
@@ -5017,46 +5017,46 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C11" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D11" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E11" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F11" t="n">
-        <v>850.2139837551615</v>
+        <v>850.2139837551624</v>
       </c>
       <c r="G11" t="n">
-        <v>435.141533600158</v>
+        <v>435.1415336001589</v>
       </c>
       <c r="H11" t="n">
-        <v>137.5579332089252</v>
+        <v>137.5579332089261</v>
       </c>
       <c r="I11" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J11" t="n">
-        <v>388.5878045036214</v>
+        <v>284.44016540742</v>
       </c>
       <c r="K11" t="n">
-        <v>722.4071781934679</v>
+        <v>618.2595390972665</v>
       </c>
       <c r="L11" t="n">
-        <v>1586.925993846823</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M11" t="n">
-        <v>2120.457898518747</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N11" t="n">
-        <v>2667.23671557753</v>
+        <v>3362.809616117414</v>
       </c>
       <c r="O11" t="n">
-        <v>3547.201365906984</v>
+        <v>3865.782086996752</v>
       </c>
       <c r="P11" t="n">
         <v>4260.55645335393</v>
@@ -5065,28 +5065,28 @@
         <v>4719.034655862918</v>
       </c>
       <c r="R11" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S11" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T11" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U11" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V11" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W11" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X11" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y11" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="12">
@@ -5117,19 +5117,19 @@
         <v>114.5683260468564</v>
       </c>
       <c r="I12" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J12" t="n">
         <v>189.2383039390118</v>
       </c>
       <c r="K12" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193591</v>
       </c>
       <c r="L12" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320246</v>
       </c>
       <c r="M12" t="n">
-        <v>1241.47698845434</v>
+        <v>1241.476988454341</v>
       </c>
       <c r="N12" t="n">
         <v>1715.000032008795</v>
@@ -5141,7 +5141,7 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q12" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549553</v>
       </c>
       <c r="R12" t="n">
         <v>2593.958107142068</v>
@@ -5175,43 +5175,43 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>901.3723255570255</v>
+        <v>533.2127443498368</v>
       </c>
       <c r="C13" t="n">
-        <v>901.3723255570255</v>
+        <v>533.2127443498368</v>
       </c>
       <c r="D13" t="n">
-        <v>801.6097761177758</v>
+        <v>533.2127443498368</v>
       </c>
       <c r="E13" t="n">
-        <v>653.6966825353827</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="F13" t="n">
-        <v>506.8067350374723</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="G13" t="n">
-        <v>339.1038984121913</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="H13" t="n">
-        <v>192.886711630049</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I13" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J13" t="n">
         <v>140.68366689533</v>
       </c>
       <c r="K13" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442065</v>
       </c>
       <c r="L13" t="n">
-        <v>661.2306482927024</v>
+        <v>661.2306482927027</v>
       </c>
       <c r="M13" t="n">
-        <v>1005.387693892251</v>
+        <v>1005.387693892252</v>
       </c>
       <c r="N13" t="n">
-        <v>1346.796070598116</v>
+        <v>1346.796070598117</v>
       </c>
       <c r="O13" t="n">
         <v>1646.12566951853</v>
@@ -5223,28 +5223,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R13" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S13" t="n">
-        <v>1956.343466104704</v>
+        <v>1674.827124689059</v>
       </c>
       <c r="T13" t="n">
-        <v>1734.57685067423</v>
+        <v>1453.060509258585</v>
       </c>
       <c r="U13" t="n">
-        <v>1445.473983799873</v>
+        <v>1453.060509258585</v>
       </c>
       <c r="V13" t="n">
-        <v>1190.789495593986</v>
+        <v>1453.060509258585</v>
       </c>
       <c r="W13" t="n">
-        <v>901.3723255570255</v>
+        <v>1163.643339221624</v>
       </c>
       <c r="X13" t="n">
-        <v>901.3723255570255</v>
+        <v>935.6537883236067</v>
       </c>
       <c r="Y13" t="n">
-        <v>901.3723255570255</v>
+        <v>714.8612091800766</v>
       </c>
     </row>
     <row r="14">
@@ -5257,31 +5257,31 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C14" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D14" t="n">
         <v>1646.988141143014</v>
       </c>
       <c r="E14" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F14" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551624</v>
       </c>
       <c r="G14" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001589</v>
       </c>
       <c r="H14" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089261</v>
       </c>
       <c r="I14" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J14" t="n">
-        <v>284.4401654074198</v>
+        <v>284.44016540742</v>
       </c>
       <c r="K14" t="n">
-        <v>618.2595390972663</v>
+        <v>618.2595390972665</v>
       </c>
       <c r="L14" t="n">
         <v>1482.778354750621</v>
@@ -5290,34 +5290,34 @@
         <v>2461.32865758045</v>
       </c>
       <c r="N14" t="n">
-        <v>3441.080929807096</v>
+        <v>3362.809616117414</v>
       </c>
       <c r="O14" t="n">
-        <v>4075.973927750058</v>
+        <v>3865.782086996752</v>
       </c>
       <c r="P14" t="n">
-        <v>4470.748294107236</v>
+        <v>4260.55645335393</v>
       </c>
       <c r="Q14" t="n">
         <v>4719.034655862918</v>
       </c>
       <c r="R14" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S14" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T14" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U14" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V14" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W14" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X14" t="n">
         <v>3150.95552873011</v>
@@ -5333,37 +5333,37 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973199</v>
       </c>
       <c r="C15" t="n">
-        <v>796.1397432161924</v>
+        <v>796.1397432161929</v>
       </c>
       <c r="D15" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549417</v>
       </c>
       <c r="E15" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494862</v>
       </c>
       <c r="F15" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763712</v>
       </c>
       <c r="G15" t="n">
-        <v>205.0702204089891</v>
+        <v>205.0702204089893</v>
       </c>
       <c r="H15" t="n">
         <v>114.5683260468568</v>
       </c>
       <c r="I15" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J15" t="n">
-        <v>189.2383039390115</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K15" t="n">
-        <v>427.5025029193586</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L15" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320245</v>
       </c>
       <c r="M15" t="n">
         <v>1241.47698845434</v>
@@ -5378,7 +5378,7 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q15" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549553</v>
       </c>
       <c r="R15" t="n">
         <v>2593.958107142068</v>
@@ -5387,7 +5387,7 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T15" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313404</v>
       </c>
       <c r="U15" t="n">
         <v>2043.809373447819</v>
@@ -5396,13 +5396,13 @@
         <v>1808.657265216076</v>
       </c>
       <c r="W15" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487875</v>
       </c>
       <c r="X15" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y15" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="16">
@@ -5412,43 +5412,43 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>620.8300204283238</v>
+        <v>171.0738540998333</v>
       </c>
       <c r="C16" t="n">
-        <v>620.8300204283238</v>
+        <v>171.0738540998333</v>
       </c>
       <c r="D16" t="n">
-        <v>470.713381015988</v>
+        <v>171.0738540998333</v>
       </c>
       <c r="E16" t="n">
-        <v>322.8002874335949</v>
+        <v>171.0738540998333</v>
       </c>
       <c r="F16" t="n">
-        <v>322.8002874335949</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G16" t="n">
-        <v>155.0974508083139</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H16" t="n">
-        <v>155.0974508083139</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I16" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J16" t="n">
         <v>140.68366689533</v>
       </c>
       <c r="K16" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442065</v>
       </c>
       <c r="L16" t="n">
-        <v>661.2306482927024</v>
+        <v>661.2306482927027</v>
       </c>
       <c r="M16" t="n">
-        <v>1005.387693892251</v>
+        <v>1005.387693892252</v>
       </c>
       <c r="N16" t="n">
-        <v>1346.796070598116</v>
+        <v>1346.796070598117</v>
       </c>
       <c r="O16" t="n">
         <v>1646.12566951853</v>
@@ -5463,25 +5463,25 @@
         <v>1866.513008862232</v>
       </c>
       <c r="S16" t="n">
-        <v>1674.827124689058</v>
+        <v>1674.827124689059</v>
       </c>
       <c r="T16" t="n">
-        <v>1674.827124689058</v>
+        <v>1453.060509258585</v>
       </c>
       <c r="U16" t="n">
-        <v>1385.724257814702</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V16" t="n">
-        <v>1131.039769608815</v>
+        <v>909.2731541783413</v>
       </c>
       <c r="W16" t="n">
-        <v>841.6225995718539</v>
+        <v>619.8559841413808</v>
       </c>
       <c r="X16" t="n">
-        <v>841.6225995718539</v>
+        <v>391.8664332433634</v>
       </c>
       <c r="Y16" t="n">
-        <v>620.8300204283238</v>
+        <v>171.0738540998333</v>
       </c>
     </row>
     <row r="17">
@@ -5494,49 +5494,49 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C17" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D17" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E17" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F17" t="n">
-        <v>850.2139837551626</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G17" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001584</v>
       </c>
       <c r="H17" t="n">
-        <v>137.5579332089264</v>
+        <v>137.5579332089256</v>
       </c>
       <c r="I17" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J17" t="n">
-        <v>284.4401654074198</v>
+        <v>451.845814427773</v>
       </c>
       <c r="K17" t="n">
-        <v>618.2595390972663</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L17" t="n">
-        <v>1482.778354750621</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M17" t="n">
-        <v>2461.32865758045</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N17" t="n">
-        <v>3441.080929807096</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O17" t="n">
-        <v>4075.973927750058</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P17" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q17" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R17" t="n">
         <v>4778.051722419721</v>
@@ -5548,13 +5548,13 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U17" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V17" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W17" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X17" t="n">
         <v>3150.95552873011</v>
@@ -5570,25 +5570,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C18" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D18" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E18" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F18" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G18" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H18" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I18" t="n">
         <v>95.56103444839442</v>
@@ -5597,13 +5597,13 @@
         <v>189.2383039390118</v>
       </c>
       <c r="K18" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193591</v>
       </c>
       <c r="L18" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320246</v>
       </c>
       <c r="M18" t="n">
-        <v>1241.47698845434</v>
+        <v>1241.476988454341</v>
       </c>
       <c r="N18" t="n">
         <v>1715.000032008795</v>
@@ -5615,7 +5615,7 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q18" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549553</v>
       </c>
       <c r="R18" t="n">
         <v>2593.958107142068</v>
@@ -5627,7 +5627,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U18" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V18" t="n">
         <v>1808.657265216076</v>
@@ -5636,10 +5636,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X18" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y18" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="19">
@@ -5676,16 +5676,16 @@
         <v>140.68366689533</v>
       </c>
       <c r="K19" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442065</v>
       </c>
       <c r="L19" t="n">
-        <v>661.2306482927024</v>
+        <v>661.2306482927027</v>
       </c>
       <c r="M19" t="n">
-        <v>1005.387693892251</v>
+        <v>1005.387693892252</v>
       </c>
       <c r="N19" t="n">
-        <v>1346.796070598116</v>
+        <v>1346.796070598117</v>
       </c>
       <c r="O19" t="n">
         <v>1646.12566951853</v>
@@ -5700,25 +5700,25 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S19" t="n">
-        <v>1780.96276986786</v>
+        <v>1764.657581931531</v>
       </c>
       <c r="T19" t="n">
-        <v>1559.196154437386</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U19" t="n">
-        <v>1270.093287563029</v>
+        <v>1253.7880996267</v>
       </c>
       <c r="V19" t="n">
-        <v>1015.408799357142</v>
+        <v>999.1036114208131</v>
       </c>
       <c r="W19" t="n">
-        <v>725.9916293201816</v>
+        <v>709.6864413838525</v>
       </c>
       <c r="X19" t="n">
-        <v>498.0020784221642</v>
+        <v>481.6968904858352</v>
       </c>
       <c r="Y19" t="n">
-        <v>277.2094992786341</v>
+        <v>260.904311342305</v>
       </c>
     </row>
     <row r="20">
@@ -5731,16 +5731,16 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C20" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D20" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E20" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F20" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G20" t="n">
         <v>435.1415336001585</v>
@@ -5752,25 +5752,25 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J20" t="n">
-        <v>451.8458144277729</v>
+        <v>284.44016540742</v>
       </c>
       <c r="K20" t="n">
-        <v>1106.569146563073</v>
+        <v>618.2595390972665</v>
       </c>
       <c r="L20" t="n">
-        <v>1557.603359811481</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M20" t="n">
-        <v>2091.135264483406</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N20" t="n">
-        <v>2637.914081542188</v>
+        <v>3441.080929807097</v>
       </c>
       <c r="O20" t="n">
-        <v>3482.142110232732</v>
+        <v>4010.914672075805</v>
       </c>
       <c r="P20" t="n">
-        <v>4195.497197679678</v>
+        <v>4405.689038432984</v>
       </c>
       <c r="Q20" t="n">
         <v>4653.975400188666</v>
@@ -5782,16 +5782,16 @@
         <v>4667.761053946816</v>
       </c>
       <c r="T20" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U20" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V20" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W20" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X20" t="n">
         <v>3150.95552873011</v>
@@ -5807,43 +5807,43 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973199</v>
       </c>
       <c r="C21" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161929</v>
       </c>
       <c r="D21" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549417</v>
       </c>
       <c r="E21" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494862</v>
       </c>
       <c r="F21" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763712</v>
       </c>
       <c r="G21" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089893</v>
       </c>
       <c r="H21" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I21" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J21" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390115</v>
       </c>
       <c r="K21" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193587</v>
       </c>
       <c r="L21" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320238</v>
       </c>
       <c r="M21" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N21" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O21" t="n">
         <v>2125.96131142685</v>
@@ -5852,7 +5852,7 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q21" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549553</v>
       </c>
       <c r="R21" t="n">
         <v>2593.958107142068</v>
@@ -5861,7 +5861,7 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T21" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313404</v>
       </c>
       <c r="U21" t="n">
         <v>2043.809373447819</v>
@@ -5870,7 +5870,7 @@
         <v>1808.657265216076</v>
       </c>
       <c r="W21" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487875</v>
       </c>
       <c r="X21" t="n">
         <v>1346.568408282342</v>
@@ -5886,19 +5886,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>95.56103444839442</v>
+        <v>558.0669121539789</v>
       </c>
       <c r="C22" t="n">
-        <v>95.56103444839442</v>
+        <v>558.0669121539789</v>
       </c>
       <c r="D22" t="n">
-        <v>95.56103444839442</v>
+        <v>558.0669121539789</v>
       </c>
       <c r="E22" t="n">
-        <v>95.56103444839442</v>
+        <v>410.1538185715858</v>
       </c>
       <c r="F22" t="n">
-        <v>95.56103444839442</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G22" t="n">
         <v>95.56103444839442</v>
@@ -5913,16 +5913,16 @@
         <v>140.68366689533</v>
       </c>
       <c r="K22" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442065</v>
       </c>
       <c r="L22" t="n">
-        <v>661.2306482927024</v>
+        <v>661.2306482927027</v>
       </c>
       <c r="M22" t="n">
-        <v>1005.387693892251</v>
+        <v>1005.387693892252</v>
       </c>
       <c r="N22" t="n">
-        <v>1346.796070598116</v>
+        <v>1346.796070598117</v>
       </c>
       <c r="O22" t="n">
         <v>1646.12566951853</v>
@@ -5937,25 +5937,25 @@
         <v>1866.513008862232</v>
       </c>
       <c r="S22" t="n">
-        <v>1674.827124689058</v>
+        <v>1674.827124689059</v>
       </c>
       <c r="T22" t="n">
-        <v>1453.060509258584</v>
+        <v>1453.060509258585</v>
       </c>
       <c r="U22" t="n">
-        <v>1270.093287563029</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V22" t="n">
-        <v>1015.408799357142</v>
+        <v>909.2731541783413</v>
       </c>
       <c r="W22" t="n">
-        <v>725.9916293201816</v>
+        <v>619.8559841413808</v>
       </c>
       <c r="X22" t="n">
-        <v>498.0020784221642</v>
+        <v>558.0669121539789</v>
       </c>
       <c r="Y22" t="n">
-        <v>277.2094992786341</v>
+        <v>558.0669121539789</v>
       </c>
     </row>
     <row r="23">
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C23" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D23" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E23" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F23" t="n">
-        <v>850.2139837551626</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G23" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H23" t="n">
-        <v>137.5579332089264</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I23" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J23" t="n">
-        <v>451.8458144277729</v>
+        <v>284.44016540742</v>
       </c>
       <c r="K23" t="n">
-        <v>1106.569146563073</v>
+        <v>618.2595390972665</v>
       </c>
       <c r="L23" t="n">
-        <v>1557.603359811481</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M23" t="n">
-        <v>2091.135264483406</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N23" t="n">
-        <v>2637.914081542188</v>
+        <v>3441.080929807097</v>
       </c>
       <c r="O23" t="n">
-        <v>3482.142110232732</v>
+        <v>4010.914672075804</v>
       </c>
       <c r="P23" t="n">
-        <v>4195.497197679678</v>
+        <v>4405.689038432983</v>
       </c>
       <c r="Q23" t="n">
-        <v>4653.975400188666</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R23" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S23" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T23" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U23" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V23" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W23" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X23" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y23" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="24">
@@ -6044,43 +6044,43 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>970.5927724973203</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C24" t="n">
-        <v>796.1397432161933</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D24" t="n">
-        <v>647.2053335549422</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E24" t="n">
-        <v>487.9678785494866</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F24" t="n">
-        <v>341.4333205763717</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G24" t="n">
-        <v>205.0702204089899</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H24" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I24" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J24" t="n">
-        <v>189.238303939012</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K24" t="n">
-        <v>427.5025029193594</v>
+        <v>427.5025029193591</v>
       </c>
       <c r="L24" t="n">
-        <v>794.2006632320249</v>
+        <v>794.2006632320246</v>
       </c>
       <c r="M24" t="n">
         <v>1241.476988454341</v>
       </c>
       <c r="N24" t="n">
-        <v>1715.000032008796</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O24" t="n">
         <v>2125.96131142685</v>
@@ -6098,22 +6098,22 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T24" t="n">
-        <v>2271.877220313404</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U24" t="n">
-        <v>2043.80937344782</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V24" t="n">
-        <v>1808.657265216077</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W24" t="n">
-        <v>1554.419908487875</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X24" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y24" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="25">
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>902.3463618439697</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="C25" t="n">
-        <v>902.3463618439697</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="D25" t="n">
-        <v>801.6097761177758</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="E25" t="n">
-        <v>653.6966825353827</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="F25" t="n">
-        <v>506.8067350374723</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="G25" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H25" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I25" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J25" t="n">
         <v>140.68366689533</v>
@@ -6153,13 +6153,13 @@
         <v>344.6708498442064</v>
       </c>
       <c r="L25" t="n">
-        <v>661.2306482927024</v>
+        <v>661.2306482927027</v>
       </c>
       <c r="M25" t="n">
-        <v>1005.387693892251</v>
+        <v>1005.387693892252</v>
       </c>
       <c r="N25" t="n">
-        <v>1346.796070598116</v>
+        <v>1346.796070598117</v>
       </c>
       <c r="O25" t="n">
         <v>1646.12566951853</v>
@@ -6174,25 +6174,25 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S25" t="n">
-        <v>1956.343466104704</v>
+        <v>1764.657581931531</v>
       </c>
       <c r="T25" t="n">
-        <v>1956.343466104704</v>
+        <v>1559.196154437386</v>
       </c>
       <c r="U25" t="n">
-        <v>1667.240599230347</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V25" t="n">
-        <v>1412.556111024461</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W25" t="n">
-        <v>1123.1389409875</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X25" t="n">
-        <v>1123.1389409875</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y25" t="n">
-        <v>902.3463618439697</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="26">
@@ -6202,31 +6202,31 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C26" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D26" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E26" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F26" t="n">
-        <v>850.2139837551626</v>
+        <v>850.2139837551615</v>
       </c>
       <c r="G26" t="n">
-        <v>435.1415336001592</v>
+        <v>435.141533600158</v>
       </c>
       <c r="H26" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089252</v>
       </c>
       <c r="I26" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J26" t="n">
-        <v>451.8458144277729</v>
+        <v>451.845814427773</v>
       </c>
       <c r="K26" t="n">
         <v>1106.569146563073</v>
@@ -6241,37 +6241,37 @@
         <v>2637.914081542188</v>
       </c>
       <c r="O26" t="n">
-        <v>3482.142110232732</v>
+        <v>3482.142110232731</v>
       </c>
       <c r="P26" t="n">
-        <v>4195.497197679678</v>
+        <v>4195.497197679677</v>
       </c>
       <c r="Q26" t="n">
-        <v>4653.975400188666</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R26" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S26" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T26" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U26" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V26" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W26" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X26" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y26" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="27">
@@ -6281,40 +6281,40 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>970.5927724973199</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C27" t="n">
-        <v>796.1397432161929</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D27" t="n">
-        <v>647.2053335549417</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E27" t="n">
-        <v>487.9678785494862</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F27" t="n">
-        <v>341.4333205763712</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G27" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H27" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I27" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J27" t="n">
-        <v>189.238303939012</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K27" t="n">
         <v>427.5025029193591</v>
       </c>
       <c r="L27" t="n">
-        <v>794.2006632320245</v>
+        <v>794.2006632320246</v>
       </c>
       <c r="M27" t="n">
-        <v>1241.47698845434</v>
+        <v>1241.476988454341</v>
       </c>
       <c r="N27" t="n">
         <v>1715.000032008795</v>
@@ -6326,7 +6326,7 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q27" t="n">
-        <v>2594.102460549553</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R27" t="n">
         <v>2593.958107142068</v>
@@ -6335,22 +6335,22 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T27" t="n">
-        <v>2271.877220313404</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U27" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V27" t="n">
         <v>1808.657265216076</v>
       </c>
       <c r="W27" t="n">
-        <v>1554.419908487875</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X27" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y27" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="28">
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3677.3423409661</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="C28" t="n">
-        <v>3508.406158038193</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="D28" t="n">
-        <v>3358.289518625857</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="E28" t="n">
-        <v>3210.376425043464</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="F28" t="n">
-        <v>3063.486477545554</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="G28" t="n">
-        <v>3063.486477545554</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H28" t="n">
-        <v>2917.269290763412</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I28" t="n">
-        <v>2917.269290763412</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J28" t="n">
-        <v>2962.391923210348</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K28" t="n">
-        <v>3166.379106159224</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L28" t="n">
-        <v>3482.93890460772</v>
+        <v>661.2306482927027</v>
       </c>
       <c r="M28" t="n">
-        <v>3827.095950207269</v>
+        <v>1005.387693892252</v>
       </c>
       <c r="N28" t="n">
-        <v>4168.504326913134</v>
+        <v>1346.796070598117</v>
       </c>
       <c r="O28" t="n">
-        <v>4467.833925833547</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P28" t="n">
-        <v>4700.441426267206</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q28" t="n">
-        <v>4778.051722419721</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R28" t="n">
-        <v>4778.051722419721</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S28" t="n">
-        <v>4778.051722419721</v>
+        <v>1764.657581931531</v>
       </c>
       <c r="T28" t="n">
-        <v>4778.051722419721</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U28" t="n">
-        <v>4778.051722419721</v>
+        <v>1253.7880996267</v>
       </c>
       <c r="V28" t="n">
-        <v>4597.190105874848</v>
+        <v>999.1036114208131</v>
       </c>
       <c r="W28" t="n">
-        <v>4307.772935837887</v>
+        <v>709.6864413838525</v>
       </c>
       <c r="X28" t="n">
-        <v>4079.78338493987</v>
+        <v>481.6968904858352</v>
       </c>
       <c r="Y28" t="n">
-        <v>3858.99080579634</v>
+        <v>260.904311342305</v>
       </c>
     </row>
     <row r="29">
@@ -6439,28 +6439,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C29" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D29" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E29" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F29" t="n">
-        <v>850.2139837551624</v>
+        <v>850.2139837551617</v>
       </c>
       <c r="G29" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001583</v>
       </c>
       <c r="H29" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089255</v>
       </c>
       <c r="I29" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J29" t="n">
         <v>451.8458144277729</v>
@@ -6469,46 +6469,46 @@
         <v>1106.569146563073</v>
       </c>
       <c r="L29" t="n">
-        <v>1557.603359811481</v>
+        <v>1971.087962216427</v>
       </c>
       <c r="M29" t="n">
-        <v>2091.135264483406</v>
+        <v>2528.189928969821</v>
       </c>
       <c r="N29" t="n">
-        <v>2637.914081542188</v>
+        <v>3507.942201196468</v>
       </c>
       <c r="O29" t="n">
-        <v>3482.142110232732</v>
+        <v>4010.914672075804</v>
       </c>
       <c r="P29" t="n">
-        <v>4195.497197679678</v>
+        <v>4405.689038432983</v>
       </c>
       <c r="Q29" t="n">
-        <v>4653.975400188666</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R29" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S29" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T29" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U29" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V29" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W29" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X29" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y29" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="30">
@@ -6518,28 +6518,28 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C30" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D30" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E30" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F30" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G30" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H30" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I30" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J30" t="n">
         <v>189.2383039390118</v>
@@ -6548,7 +6548,7 @@
         <v>427.5025029193589</v>
       </c>
       <c r="L30" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M30" t="n">
         <v>1241.47698845434</v>
@@ -6560,16 +6560,16 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P30" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q30" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R30" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S30" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T30" t="n">
         <v>2271.877220313403</v>
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>340.7998052124422</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="C31" t="n">
-        <v>340.7998052124422</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="D31" t="n">
-        <v>340.7998052124422</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="E31" t="n">
-        <v>192.8867116300491</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="F31" t="n">
-        <v>192.8867116300491</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G31" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H31" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I31" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J31" t="n">
         <v>140.68366689533</v>
@@ -6645,28 +6645,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R31" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S31" t="n">
-        <v>1674.827124689058</v>
+        <v>1767.017141662901</v>
       </c>
       <c r="T31" t="n">
-        <v>1453.060509258584</v>
+        <v>1545.250526232427</v>
       </c>
       <c r="U31" t="n">
-        <v>1163.957642384228</v>
+        <v>1256.147659358071</v>
       </c>
       <c r="V31" t="n">
-        <v>909.2731541783409</v>
+        <v>1001.463171152184</v>
       </c>
       <c r="W31" t="n">
-        <v>619.8559841413803</v>
+        <v>712.0460011152229</v>
       </c>
       <c r="X31" t="n">
-        <v>391.866433243363</v>
+        <v>484.0564502172056</v>
       </c>
       <c r="Y31" t="n">
-        <v>340.7998052124422</v>
+        <v>263.2638710736754</v>
       </c>
     </row>
     <row r="32">
@@ -6676,52 +6676,52 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C32" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D32" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E32" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F32" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G32" t="n">
-        <v>435.1415336001586</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H32" t="n">
-        <v>137.5579332089258</v>
+        <v>137.5579332089264</v>
       </c>
       <c r="I32" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J32" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K32" t="n">
-        <v>785.6651881176194</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L32" t="n">
-        <v>1236.699401366028</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M32" t="n">
-        <v>2215.249704195857</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N32" t="n">
-        <v>2762.028521254639</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O32" t="n">
-        <v>3482.142110232732</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P32" t="n">
-        <v>4195.497197679678</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q32" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R32" t="n">
         <v>4778.051722419721</v>
@@ -6733,19 +6733,19 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U32" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V32" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W32" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X32" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y32" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="33">
@@ -6755,19 +6755,19 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C33" t="n">
-        <v>796.1397432161928</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D33" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E33" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F33" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G33" t="n">
         <v>205.0702204089889</v>
@@ -6785,7 +6785,7 @@
         <v>427.5025029193589</v>
       </c>
       <c r="L33" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M33" t="n">
         <v>1241.47698845434</v>
@@ -6797,22 +6797,22 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P33" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q33" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R33" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S33" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T33" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U33" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V33" t="n">
         <v>1808.657265216076</v>
@@ -6821,10 +6821,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X33" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y33" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="34">
@@ -6834,7 +6834,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>481.6968904858347</v>
+        <v>393.5907674431232</v>
       </c>
       <c r="C34" t="n">
         <v>393.5907674431232</v>
@@ -6897,13 +6897,13 @@
         <v>999.1036114208126</v>
       </c>
       <c r="W34" t="n">
-        <v>709.6864413838521</v>
+        <v>803.2287831713803</v>
       </c>
       <c r="X34" t="n">
-        <v>481.6968904858347</v>
+        <v>575.239232273363</v>
       </c>
       <c r="Y34" t="n">
-        <v>481.6968904858347</v>
+        <v>575.239232273363</v>
       </c>
     </row>
     <row r="35">
@@ -6913,7 +6913,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C35" t="n">
         <v>2005.253839749764</v>
@@ -6922,19 +6922,19 @@
         <v>1646.988141143014</v>
       </c>
       <c r="E35" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F35" t="n">
-        <v>850.2139837551618</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G35" t="n">
-        <v>435.1415336001584</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H35" t="n">
         <v>137.5579332089257</v>
       </c>
       <c r="I35" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J35" t="n">
         <v>284.4401654074198</v>
@@ -6952,37 +6952,37 @@
         <v>3441.080929807096</v>
       </c>
       <c r="O35" t="n">
-        <v>4010.914672075804</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P35" t="n">
-        <v>4405.689038432983</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q35" t="n">
-        <v>4653.975400188665</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R35" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S35" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T35" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U35" t="n">
         <v>4208.252829604874</v>
       </c>
       <c r="V35" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W35" t="n">
         <v>3524.421286991189</v>
       </c>
       <c r="X35" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y35" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="36">
@@ -6992,34 +6992,34 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C36" t="n">
-        <v>796.1397432161925</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D36" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E36" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F36" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G36" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H36" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I36" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J36" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390115</v>
       </c>
       <c r="K36" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193587</v>
       </c>
       <c r="L36" t="n">
         <v>794.2006632320242</v>
@@ -7034,16 +7034,16 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P36" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q36" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R36" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S36" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T36" t="n">
         <v>2271.877220313403</v>
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>812.5159046014975</v>
+        <v>680.5797464134954</v>
       </c>
       <c r="C37" t="n">
-        <v>643.5797216735906</v>
+        <v>511.6435634855885</v>
       </c>
       <c r="D37" t="n">
-        <v>643.5797216735906</v>
+        <v>361.5269240732528</v>
       </c>
       <c r="E37" t="n">
-        <v>643.5797216735906</v>
+        <v>361.5269240732528</v>
       </c>
       <c r="F37" t="n">
-        <v>506.8067350374723</v>
+        <v>214.6369765753424</v>
       </c>
       <c r="G37" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H37" t="n">
-        <v>192.886711630049</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I37" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J37" t="n">
         <v>140.68366689533</v>
@@ -7119,28 +7119,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R37" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S37" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T37" t="n">
-        <v>1866.513008862232</v>
+        <v>1734.57685067423</v>
       </c>
       <c r="U37" t="n">
-        <v>1577.410141987875</v>
+        <v>1445.473983799873</v>
       </c>
       <c r="V37" t="n">
-        <v>1322.725653781988</v>
+        <v>1190.789495593986</v>
       </c>
       <c r="W37" t="n">
-        <v>1033.308483745028</v>
+        <v>901.3723255570255</v>
       </c>
       <c r="X37" t="n">
-        <v>1033.308483745028</v>
+        <v>901.3723255570255</v>
       </c>
       <c r="Y37" t="n">
-        <v>812.5159046014975</v>
+        <v>680.5797464134954</v>
       </c>
     </row>
     <row r="38">
@@ -7150,10 +7150,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C38" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D38" t="n">
         <v>1646.988141143014</v>
@@ -7162,40 +7162,40 @@
         <v>1261.19988854477</v>
       </c>
       <c r="F38" t="n">
-        <v>850.2139837551625</v>
+        <v>850.2139837551624</v>
       </c>
       <c r="G38" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001589</v>
       </c>
       <c r="H38" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089261</v>
       </c>
       <c r="I38" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J38" t="n">
-        <v>284.4401654074198</v>
+        <v>284.44016540742</v>
       </c>
       <c r="K38" t="n">
-        <v>618.2595390972663</v>
+        <v>806.1613418786363</v>
       </c>
       <c r="L38" t="n">
-        <v>1482.778354750621</v>
+        <v>1670.680157531991</v>
       </c>
       <c r="M38" t="n">
-        <v>2461.32865758045</v>
+        <v>2649.23046036182</v>
       </c>
       <c r="N38" t="n">
-        <v>3441.080929807096</v>
+        <v>3196.009277420602</v>
       </c>
       <c r="O38" t="n">
         <v>4075.973927750058</v>
       </c>
       <c r="P38" t="n">
-        <v>4470.748294107237</v>
+        <v>4470.748294107236</v>
       </c>
       <c r="Q38" t="n">
-        <v>4719.034655862919</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R38" t="n">
         <v>4778.051722419721</v>
@@ -7207,19 +7207,19 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U38" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V38" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W38" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X38" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y38" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="39">
@@ -7229,25 +7229,25 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C39" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D39" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E39" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F39" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G39" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089894</v>
       </c>
       <c r="H39" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468566</v>
       </c>
       <c r="I39" t="n">
         <v>95.56103444839442</v>
@@ -7256,10 +7256,10 @@
         <v>189.2383039390118</v>
       </c>
       <c r="K39" t="n">
-        <v>427.5025029193589</v>
+        <v>427.502502919359</v>
       </c>
       <c r="L39" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320245</v>
       </c>
       <c r="M39" t="n">
         <v>1241.47698845434</v>
@@ -7268,25 +7268,25 @@
         <v>1715.000032008795</v>
       </c>
       <c r="O39" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P39" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q39" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R39" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S39" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T39" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U39" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V39" t="n">
         <v>1808.657265216076</v>
@@ -7308,19 +7308,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>724.8986285230101</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C40" t="n">
-        <v>555.9624455951032</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D40" t="n">
-        <v>405.8458061827674</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E40" t="n">
-        <v>257.9327126003743</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F40" t="n">
-        <v>111.042765102464</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G40" t="n">
         <v>95.56103444839442</v>
@@ -7335,16 +7335,16 @@
         <v>140.68366689533</v>
       </c>
       <c r="K40" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442065</v>
       </c>
       <c r="L40" t="n">
-        <v>661.2306482927024</v>
+        <v>661.2306482927027</v>
       </c>
       <c r="M40" t="n">
-        <v>1005.387693892251</v>
+        <v>1005.387693892252</v>
       </c>
       <c r="N40" t="n">
-        <v>1346.796070598116</v>
+        <v>1346.796070598117</v>
       </c>
       <c r="O40" t="n">
         <v>1646.12566951853</v>
@@ -7356,28 +7356,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R40" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S40" t="n">
-        <v>1866.513008862232</v>
+        <v>1764.657581931531</v>
       </c>
       <c r="T40" t="n">
-        <v>1644.746393431758</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U40" t="n">
-        <v>1644.746393431758</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V40" t="n">
-        <v>1644.746393431758</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W40" t="n">
-        <v>1355.329223394797</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X40" t="n">
-        <v>1127.33967249678</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y40" t="n">
-        <v>906.5470933532498</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="41">
@@ -7390,22 +7390,22 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C41" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D41" t="n">
         <v>1646.988141143014</v>
       </c>
       <c r="E41" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F41" t="n">
-        <v>850.2139837551624</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G41" t="n">
-        <v>435.1415336001589</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H41" t="n">
-        <v>137.5579332089261</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I41" t="n">
         <v>95.56103444839442</v>
@@ -7414,16 +7414,16 @@
         <v>451.8458144277729</v>
       </c>
       <c r="K41" t="n">
-        <v>1106.569146563073</v>
+        <v>1002.806306216376</v>
       </c>
       <c r="L41" t="n">
-        <v>1557.603359811481</v>
+        <v>1453.840519464784</v>
       </c>
       <c r="M41" t="n">
-        <v>2091.135264483406</v>
+        <v>2432.390822294613</v>
       </c>
       <c r="N41" t="n">
-        <v>2637.914081542188</v>
+        <v>2979.169639353395</v>
       </c>
       <c r="O41" t="n">
         <v>3482.142110232732</v>
@@ -7444,13 +7444,13 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U41" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V41" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W41" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X41" t="n">
         <v>3150.95552873011</v>
@@ -7466,13 +7466,13 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973196</v>
       </c>
       <c r="C42" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161926</v>
       </c>
       <c r="D42" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549414</v>
       </c>
       <c r="E42" t="n">
         <v>487.9678785494859</v>
@@ -7481,7 +7481,7 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G42" t="n">
-        <v>205.0702204089889</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H42" t="n">
         <v>114.5683260468565</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1120.662598458018</v>
+        <v>260.9043113423046</v>
       </c>
       <c r="C43" t="n">
-        <v>951.7264155301116</v>
+        <v>260.9043113423046</v>
       </c>
       <c r="D43" t="n">
-        <v>801.6097761177758</v>
+        <v>110.7876719299689</v>
       </c>
       <c r="E43" t="n">
-        <v>653.6966825353827</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F43" t="n">
-        <v>506.8067350374723</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G43" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H43" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I43" t="n">
         <v>95.56103444839442</v>
@@ -7596,25 +7596,25 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S43" t="n">
-        <v>1956.343466104704</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T43" t="n">
-        <v>1956.343466104704</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U43" t="n">
-        <v>1956.343466104704</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V43" t="n">
-        <v>1956.343466104704</v>
+        <v>999.1036114208126</v>
       </c>
       <c r="W43" t="n">
-        <v>1751.093193329805</v>
+        <v>709.6864413838521</v>
       </c>
       <c r="X43" t="n">
-        <v>1523.103642431788</v>
+        <v>481.6968904858347</v>
       </c>
       <c r="Y43" t="n">
-        <v>1302.311063288258</v>
+        <v>260.9043113423046</v>
       </c>
     </row>
     <row r="44">
@@ -7624,22 +7624,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C44" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D44" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E44" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F44" t="n">
-        <v>850.2139837551625</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G44" t="n">
-        <v>435.1415336001589</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H44" t="n">
         <v>137.5579332089261</v>
@@ -7651,19 +7651,19 @@
         <v>284.4401654074198</v>
       </c>
       <c r="K44" t="n">
-        <v>618.2595390972663</v>
+        <v>913.1101661838561</v>
       </c>
       <c r="L44" t="n">
-        <v>1482.778354750621</v>
+        <v>1364.144379432265</v>
       </c>
       <c r="M44" t="n">
-        <v>2461.32865758045</v>
+        <v>1897.67628410419</v>
       </c>
       <c r="N44" t="n">
-        <v>3441.080929807096</v>
+        <v>2877.428556330836</v>
       </c>
       <c r="O44" t="n">
-        <v>4075.973927750058</v>
+        <v>3757.393206660291</v>
       </c>
       <c r="P44" t="n">
         <v>4470.748294107237</v>
@@ -7681,19 +7681,19 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U44" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V44" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W44" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X44" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y44" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="45">
@@ -7703,37 +7703,37 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C45" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D45" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E45" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F45" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G45" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089891</v>
       </c>
       <c r="H45" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I45" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J45" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K45" t="n">
         <v>427.5025029193589</v>
       </c>
       <c r="L45" t="n">
-        <v>794.2006632320243</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M45" t="n">
         <v>1241.47698845434</v>
@@ -7769,10 +7769,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X45" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y45" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="46">
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>801.6097761177758</v>
+        <v>362.7597382730063</v>
       </c>
       <c r="C46" t="n">
-        <v>801.6097761177758</v>
+        <v>362.7597382730063</v>
       </c>
       <c r="D46" t="n">
-        <v>801.6097761177758</v>
+        <v>362.7597382730063</v>
       </c>
       <c r="E46" t="n">
-        <v>653.6966825353827</v>
+        <v>362.7597382730063</v>
       </c>
       <c r="F46" t="n">
-        <v>506.8067350374723</v>
+        <v>215.8697907750959</v>
       </c>
       <c r="G46" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H46" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I46" t="n">
         <v>95.56103444839442</v>
@@ -7830,28 +7830,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R46" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S46" t="n">
-        <v>1764.65758193153</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="T46" t="n">
-        <v>1542.890966501056</v>
+        <v>1644.746393431758</v>
       </c>
       <c r="U46" t="n">
-        <v>1253.788099626699</v>
+        <v>1355.643526557401</v>
       </c>
       <c r="V46" t="n">
-        <v>1029.599327015793</v>
+        <v>1100.959038351514</v>
       </c>
       <c r="W46" t="n">
-        <v>1029.599327015793</v>
+        <v>811.5418683145538</v>
       </c>
       <c r="X46" t="n">
-        <v>801.6097761177758</v>
+        <v>583.5523174165364</v>
       </c>
       <c r="Y46" t="n">
-        <v>801.6097761177758</v>
+        <v>362.7597382730063</v>
       </c>
     </row>
   </sheetData>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8069,13 +8069,13 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451756</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>275.0442842992659</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
@@ -8306,7 +8306,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>435.923890002883</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951786</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8531,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8543,7 +8543,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>359.906554245176</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951786</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8689,7 +8689,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>105.1996354507086</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -8698,16 +8698,16 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>358.2849913921026</v>
       </c>
       <c r="O11" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
         <v>212.3149906599047</v>
@@ -8938,16 +8938,16 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N14" t="n">
-        <v>437.3469244119842</v>
+        <v>358.2849913921026</v>
       </c>
       <c r="O14" t="n">
-        <v>133.2530576400246</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -9163,31 +9163,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L17" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>133.2530576400255</v>
+        <v>344.7025836476831</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9400,28 +9400,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O20" t="n">
-        <v>344.7025836476838</v>
+        <v>67.5366377670415</v>
       </c>
       <c r="P20" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
         <v>65.71641987298243</v>
@@ -9637,28 +9637,28 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O23" t="n">
-        <v>344.7025836476838</v>
+        <v>67.53663776704059</v>
       </c>
       <c r="P23" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
         <v>65.71641987298243</v>
@@ -9740,7 +9740,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>-9.481304630298837e-13</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9889,7 +9889,7 @@
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>344.7025836476838</v>
+        <v>344.7025836476822</v>
       </c>
       <c r="P26" t="n">
         <v>321.7987081714826</v>
@@ -10117,22 +10117,22 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>23.80814351663537</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O29" t="n">
-        <v>344.7025836476838</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
         <v>65.71641987298243</v>
@@ -10348,31 +10348,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M32" t="n">
         <v>449.5135334928325</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O32" t="n">
-        <v>219.3344627260163</v>
+        <v>133.2530576400255</v>
       </c>
       <c r="P32" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10600,7 +10600,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O35" t="n">
-        <v>67.53663776704173</v>
+        <v>133.2530576400255</v>
       </c>
       <c r="P35" t="n">
         <v>0</v>
@@ -10609,7 +10609,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10825,7 +10825,7 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>189.7998007892624</v>
       </c>
       <c r="L38" t="n">
         <v>417.6612145504504</v>
@@ -10834,10 +10834,10 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N38" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>133.2530576400255</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P38" t="n">
         <v>0</v>
@@ -11062,19 +11062,19 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>324.1454125711647</v>
+        <v>219.3344627260164</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>344.7025836476838</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
         <v>321.7987081714826</v>
@@ -11299,22 +11299,22 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>297.8289162490806</v>
       </c>
       <c r="L44" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O44" t="n">
-        <v>133.2530576400255</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
@@ -23415,19 +23415,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>49.85054907335515</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>23.93959301749018</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23436,7 +23436,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,28 +23463,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23658,22 +23658,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>70.66335656800675</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
-        <v>37.41136821351782</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23706,7 +23706,7 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23718,7 +23718,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23889,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>16.1421360569658</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -23937,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S19" t="n">
-        <v>16.14213605696617</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24126,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -24135,13 +24135,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>144.7550149143208</v>
@@ -24183,7 +24183,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>105.0742887270134</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24192,10 +24192,10 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>164.5384741215094</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24363,28 +24363,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>48.88625314928042</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,13 +24411,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S25" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>219.5489492761692</v>
+        <v>16.14213605696585</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24429,7 +24429,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24600,25 +24600,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>16.1421360569658</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I28" t="n">
         <v>96.35242040983809</v>
@@ -24648,19 +24648,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S28" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>73.08464294440378</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24846,19 +24846,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>2.335964134057093</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24906,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>168.0286916014832</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25074,10 +25074,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>80.02175928634347</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -25137,7 +25137,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>92.60691836965302</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25317,22 +25317,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>10.01579125317417</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>48.14062555334974</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,13 +25359,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S37" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T37" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25551,19 +25551,19 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>150.6988949114994</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H40" t="n">
         <v>144.7550149143208</v>
@@ -25596,19 +25596,19 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S40" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2118382056129</v>
+        <v>16.14213605696591</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25785,28 +25785,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>131.3595915398105</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25836,19 +25836,19 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S43" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>83.32522828944164</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -26031,19 +26031,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>46.92013949559373</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26082,16 +26082,16 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>30.19075843903087</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>953968.8932518226</v>
+        <v>953968.8932518224</v>
       </c>
     </row>
     <row r="7">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>953968.8932518226</v>
+        <v>953968.8932518224</v>
       </c>
     </row>
     <row r="10">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>953968.8932518224</v>
+        <v>953968.8932518226</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>953968.8932518226</v>
+        <v>953968.8932518224</v>
       </c>
     </row>
     <row r="15">
@@ -26316,16 +26316,16 @@
         <v>472099.017671963</v>
       </c>
       <c r="C2" t="n">
+        <v>472099.0176719629</v>
+      </c>
+      <c r="D2" t="n">
         <v>472099.017671963</v>
       </c>
-      <c r="D2" t="n">
-        <v>472099.0176719629</v>
-      </c>
       <c r="E2" t="n">
-        <v>456644.0549200308</v>
+        <v>456644.0549200309</v>
       </c>
       <c r="F2" t="n">
-        <v>456644.0549200309</v>
+        <v>456644.0549200307</v>
       </c>
       <c r="G2" t="n">
         <v>456644.0549200309</v>
@@ -26334,10 +26334,10 @@
         <v>456644.0549200308</v>
       </c>
       <c r="I2" t="n">
-        <v>456644.054920031</v>
+        <v>456644.0549200308</v>
       </c>
       <c r="J2" t="n">
-        <v>456644.054920031</v>
+        <v>456644.0549200308</v>
       </c>
       <c r="K2" t="n">
         <v>456644.0549200309</v>
@@ -26349,10 +26349,10 @@
         <v>456644.0549200309</v>
       </c>
       <c r="N2" t="n">
-        <v>456644.0549200308</v>
+        <v>456644.0549200306</v>
       </c>
       <c r="O2" t="n">
-        <v>456644.054920031</v>
+        <v>456644.0549200309</v>
       </c>
       <c r="P2" t="n">
         <v>456644.0549200309</v>
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>727377.4139934066</v>
+        <v>727377.4139934068</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925929</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26401,7 +26401,7 @@
         <v>129642.3148389447</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>1.569592313899193e-10</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26417,46 +26417,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>192206.5963924297</v>
+        <v>192206.5963924298</v>
       </c>
       <c r="C4" t="n">
         <v>192206.5963924297</v>
       </c>
       <c r="D4" t="n">
-        <v>192206.5963924298</v>
+        <v>192206.5963924297</v>
       </c>
       <c r="E4" t="n">
-        <v>21619.60799709187</v>
+        <v>21619.60799709184</v>
       </c>
       <c r="F4" t="n">
-        <v>21619.60799709187</v>
+        <v>21619.60799709185</v>
       </c>
       <c r="G4" t="n">
-        <v>21619.60799709188</v>
+        <v>21619.60799709186</v>
       </c>
       <c r="H4" t="n">
-        <v>21619.60799709187</v>
+        <v>21619.60799709186</v>
       </c>
       <c r="I4" t="n">
-        <v>21619.60799709187</v>
+        <v>21619.60799709184</v>
       </c>
       <c r="J4" t="n">
-        <v>21619.60799709187</v>
+        <v>21619.60799709185</v>
       </c>
       <c r="K4" t="n">
-        <v>21619.60799709187</v>
+        <v>21619.60799709186</v>
       </c>
       <c r="L4" t="n">
         <v>21619.60799709188</v>
       </c>
       <c r="M4" t="n">
-        <v>21619.60799709186</v>
+        <v>21619.60799709188</v>
       </c>
       <c r="N4" t="n">
+        <v>21619.60799709185</v>
+      </c>
+      <c r="O4" t="n">
         <v>21619.60799709188</v>
-      </c>
-      <c r="O4" t="n">
-        <v>21619.60799709187</v>
       </c>
       <c r="P4" t="n">
         <v>21619.60799709188</v>
@@ -26475,13 +26475,13 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="E5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="F5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="G5" t="n">
         <v>96383.51825371366</v>
@@ -26490,19 +26490,19 @@
         <v>96383.51825371366</v>
       </c>
       <c r="I5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="J5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="K5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="L5" t="n">
         <v>96383.51825371366</v>
       </c>
       <c r="M5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="N5" t="n">
         <v>96383.51825371366</v>
@@ -26524,46 +26524,46 @@
         <v>-392934.5359984208</v>
       </c>
       <c r="C6" t="n">
+        <v>197033.3432161237</v>
+      </c>
+      <c r="D6" t="n">
         <v>197033.3432161238</v>
       </c>
-      <c r="D6" t="n">
-        <v>197033.3432161237</v>
-      </c>
       <c r="E6" t="n">
-        <v>-388736.4853241813</v>
+        <v>-389408.4402264394</v>
       </c>
       <c r="F6" t="n">
-        <v>338640.9286692254</v>
+        <v>337968.9737669672</v>
       </c>
       <c r="G6" t="n">
-        <v>338640.9286692253</v>
+        <v>337968.9737669675</v>
       </c>
       <c r="H6" t="n">
-        <v>338640.9286692252</v>
+        <v>337968.9737669674</v>
       </c>
       <c r="I6" t="n">
-        <v>338640.9286692254</v>
+        <v>337968.9737669674</v>
       </c>
       <c r="J6" t="n">
-        <v>162217.7094766326</v>
+        <v>161545.7545743744</v>
       </c>
       <c r="K6" t="n">
-        <v>338640.9286692254</v>
+        <v>337968.9737669677</v>
       </c>
       <c r="L6" t="n">
-        <v>338640.9286692252</v>
+        <v>337968.9737669672</v>
       </c>
       <c r="M6" t="n">
-        <v>208998.6138302808</v>
+        <v>208326.6589280226</v>
       </c>
       <c r="N6" t="n">
-        <v>338640.9286692252</v>
+        <v>337968.973766967</v>
       </c>
       <c r="O6" t="n">
-        <v>338640.9286692254</v>
+        <v>337968.9737669676</v>
       </c>
       <c r="P6" t="n">
-        <v>338640.9286692253</v>
+        <v>337968.9737669674</v>
       </c>
     </row>
   </sheetData>
@@ -26743,25 +26743,25 @@
         <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="F3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="G3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="H3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="I3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="J3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="K3" t="n">
         <v>1089.776700593298</v>
@@ -26773,7 +26773,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="N3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="O3" t="n">
         <v>1089.776700593298</v>
@@ -26795,7 +26795,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="E4" t="n">
         <v>1194.51293060493</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>712.0330363762116</v>
+        <v>712.0330363762118</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26995,7 +26995,7 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>520.2256578503744</v>
+        <v>520.2256578503745</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503742</v>
+        <v>520.2256578503745</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503744</v>
+        <v>520.2256578503745</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,16 +27378,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>226.9689958712394</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27396,7 +27396,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>47.33725304763198</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27432,7 +27432,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
@@ -27444,10 +27444,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27539,25 +27539,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>107.5829646831822</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
         <v>45.19995918853699</v>
@@ -27581,13 +27581,13 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
-        <v>11.62584915701513</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
         <v>225.0351054580843</v>
@@ -27615,13 +27615,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>292.9264772986903</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -27675,13 +27675,13 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>321.9611413372962</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27776,19 +27776,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>18.48267778142511</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
@@ -27797,7 +27797,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>33.29020080842139</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27839,10 +27839,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27858,7 +27858,7 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>270.1454938778297</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27867,13 +27867,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>396.7586141696343</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27915,7 +27915,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -28013,28 +28013,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>160.6508054802591</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>120.5017245654298</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28058,7 +28058,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28073,10 +28073,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -31521,19 +31521,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31548,13 +31548,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31621,22 +31621,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,16 +31673,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31697,16 +31697,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H11" t="n">
         <v>44.86703772844668</v>
@@ -31761,40 +31761,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J11" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K11" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N11" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R11" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T11" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,46 +31831,46 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H12" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I12" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K12" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O12" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q12" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R12" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S12" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U12" t="n">
         <v>0.1542136840462215</v>
@@ -31913,43 +31913,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H13" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I13" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J13" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K13" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L13" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M13" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N13" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O13" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P13" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q13" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R13" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S13" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U13" t="n">
         <v>0.1071911508780295</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H14" t="n">
         <v>44.86703772844668</v>
@@ -31998,40 +31998,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J14" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K14" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L14" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M14" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N14" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O14" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P14" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R14" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S14" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T14" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U14" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,46 +32068,46 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H15" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I15" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K15" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O15" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q15" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R15" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S15" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T15" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U15" t="n">
         <v>0.1542136840462215</v>
@@ -32150,43 +32150,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H16" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I16" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J16" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K16" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L16" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M16" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N16" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O16" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P16" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q16" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R16" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S16" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T16" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U16" t="n">
         <v>0.1071911508780295</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H17" t="n">
         <v>44.86703772844668</v>
@@ -32235,40 +32235,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J17" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K17" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L17" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M17" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N17" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O17" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P17" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q17" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R17" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S17" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T17" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U17" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,46 +32305,46 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H18" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I18" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J18" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K18" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L18" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M18" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N18" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O18" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P18" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q18" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R18" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S18" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T18" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U18" t="n">
         <v>0.1542136840462215</v>
@@ -32387,43 +32387,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H19" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I19" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J19" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K19" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L19" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M19" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N19" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O19" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P19" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q19" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R19" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S19" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T19" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U19" t="n">
         <v>0.1071911508780295</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H20" t="n">
         <v>44.86703772844668</v>
@@ -32472,40 +32472,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J20" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K20" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L20" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M20" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N20" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O20" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P20" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q20" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R20" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S20" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T20" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U20" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,46 +32542,46 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H21" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I21" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J21" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K21" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L21" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M21" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N21" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O21" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P21" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q21" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R21" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S21" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T21" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U21" t="n">
         <v>0.1542136840462215</v>
@@ -32624,43 +32624,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H22" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I22" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J22" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K22" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L22" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M22" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N22" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O22" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P22" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q22" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R22" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S22" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T22" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U22" t="n">
         <v>0.1071911508780295</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H23" t="n">
         <v>44.86703772844668</v>
@@ -32709,40 +32709,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J23" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K23" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L23" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M23" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N23" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O23" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P23" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q23" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R23" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S23" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T23" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U23" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32779,46 +32779,46 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H24" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I24" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J24" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K24" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L24" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M24" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N24" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O24" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P24" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q24" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R24" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S24" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T24" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U24" t="n">
         <v>0.1542136840462215</v>
@@ -32861,43 +32861,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H25" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I25" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J25" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K25" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L25" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M25" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N25" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O25" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P25" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q25" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R25" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S25" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T25" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U25" t="n">
         <v>0.1071911508780295</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H26" t="n">
         <v>44.86703772844668</v>
@@ -32946,40 +32946,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J26" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K26" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L26" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M26" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N26" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O26" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P26" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q26" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R26" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S26" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T26" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U26" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33016,46 +33016,46 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H27" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I27" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J27" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K27" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L27" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M27" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N27" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O27" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P27" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q27" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987476</v>
       </c>
       <c r="R27" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S27" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T27" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U27" t="n">
         <v>0.1542136840462215</v>
@@ -33098,43 +33098,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H28" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I28" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J28" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K28" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L28" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M28" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N28" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O28" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P28" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q28" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R28" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S28" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T28" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U28" t="n">
         <v>0.1071911508780295</v>
@@ -33885,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H38" t="n">
         <v>44.86703772844668</v>
@@ -33894,40 +33894,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J38" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K38" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L38" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M38" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N38" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O38" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P38" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q38" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R38" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S38" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T38" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U38" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33964,46 +33964,46 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H39" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I39" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J39" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K39" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L39" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M39" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N39" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O39" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P39" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q39" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R39" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S39" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T39" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U39" t="n">
         <v>0.1542136840462215</v>
@@ -34046,43 +34046,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H40" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I40" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J40" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K40" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L40" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M40" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N40" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O40" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P40" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q40" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R40" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S40" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T40" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U40" t="n">
         <v>0.1071911508780295</v>
@@ -34453,7 +34453,7 @@
         <v>378.5123470353157</v>
       </c>
       <c r="L45" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M45" t="n">
         <v>593.9283018233475</v>
@@ -34777,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34789,13 +34789,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>439.8839133355123</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>296.2227415328935</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -35026,7 +35026,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>515.9012490932197</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
@@ -35035,7 +35035,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730635</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35172,19 +35172,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35251,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35263,16 +35263,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>439.8839133355128</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730635</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>295.9866364194212</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L11" t="n">
-        <v>873.2513289427826</v>
+        <v>873.2513289427827</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230594</v>
       </c>
       <c r="N11" t="n">
-        <v>552.3018354129115</v>
+        <v>910.5868268050141</v>
       </c>
       <c r="O11" t="n">
-        <v>888.8531821509645</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P11" t="n">
-        <v>720.5606943908545</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q11" t="n">
-        <v>463.1092954636242</v>
+        <v>463.1092954636243</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,25 +35488,25 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K12" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P12" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q12" t="n">
         <v>159.2338966127272</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K13" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L13" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M13" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N13" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O13" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P13" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q13" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K14" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L14" t="n">
-        <v>873.2513289427826</v>
+        <v>873.2513289427827</v>
       </c>
       <c r="M14" t="n">
-        <v>988.4346493230593</v>
+        <v>988.4346493230594</v>
       </c>
       <c r="N14" t="n">
-        <v>989.6487598248956</v>
+        <v>910.5868268050141</v>
       </c>
       <c r="O14" t="n">
-        <v>641.3060585282437</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P14" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636243</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,25 +35725,25 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K15" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M15" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P15" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q15" t="n">
         <v>159.2338966127272</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K16" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L16" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M16" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N16" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O16" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P16" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q16" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407864</v>
       </c>
       <c r="K17" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265653</v>
       </c>
       <c r="L17" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M17" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N17" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O17" t="n">
-        <v>641.3060585282446</v>
+        <v>852.7555845359025</v>
       </c>
       <c r="P17" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908547</v>
       </c>
       <c r="Q17" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636243</v>
       </c>
       <c r="R17" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152073</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,25 +35962,25 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K18" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L18" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M18" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N18" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O18" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P18" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q18" t="n">
         <v>159.2338966127272</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K19" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L19" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M19" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N19" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O19" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P19" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q19" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K20" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L20" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427827</v>
       </c>
       <c r="M20" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230594</v>
       </c>
       <c r="N20" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248957</v>
       </c>
       <c r="O20" t="n">
-        <v>852.7555845359029</v>
+        <v>575.5896386552608</v>
       </c>
       <c r="P20" t="n">
-        <v>720.5606943908545</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q20" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R20" t="n">
-        <v>125.3296184152072</v>
+        <v>125.3296184152073</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,25 +36199,25 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K21" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L21" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M21" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N21" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O21" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P21" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q21" t="n">
         <v>159.2338966127272</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K22" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L22" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M22" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N22" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O22" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P22" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q22" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36357,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K23" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L23" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427827</v>
       </c>
       <c r="M23" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230594</v>
       </c>
       <c r="N23" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248957</v>
       </c>
       <c r="O23" t="n">
-        <v>852.7555845359029</v>
+        <v>575.5896386552599</v>
       </c>
       <c r="P23" t="n">
-        <v>720.5606943908545</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q23" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R23" t="n">
-        <v>125.3296184152072</v>
+        <v>125.3296184152073</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,25 +36436,25 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K24" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L24" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M24" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N24" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O24" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P24" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q24" t="n">
         <v>159.2338966127272</v>
@@ -36515,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K25" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L25" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M25" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N25" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O25" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P25" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q25" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36594,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>359.8836161407863</v>
+        <v>359.8836161407864</v>
       </c>
       <c r="K26" t="n">
-        <v>661.3366991265652</v>
+        <v>661.3366991265653</v>
       </c>
       <c r="L26" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M26" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N26" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O26" t="n">
-        <v>852.7555845359029</v>
+        <v>852.7555845359016</v>
       </c>
       <c r="P26" t="n">
-        <v>720.5606943908545</v>
+        <v>720.5606943908547</v>
       </c>
       <c r="Q26" t="n">
-        <v>463.1092954636242</v>
+        <v>463.1092954636243</v>
       </c>
       <c r="R26" t="n">
-        <v>125.3296184152072</v>
+        <v>125.3296184152073</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K27" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L27" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M27" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N27" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O27" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P27" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q27" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127261</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36752,28 +36752,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K28" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L28" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M28" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N28" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O28" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P28" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q28" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36837,22 +36837,22 @@
         <v>661.3366991265652</v>
       </c>
       <c r="L29" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M29" t="n">
-        <v>538.9211158302268</v>
+        <v>562.7292593468621</v>
       </c>
       <c r="N29" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O29" t="n">
-        <v>852.7555845359029</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P29" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q29" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R29" t="n">
         <v>125.3296184152072</v>
@@ -37068,31 +37068,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K32" t="n">
         <v>337.1912865554005</v>
       </c>
       <c r="L32" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M32" t="n">
         <v>988.4346493230593</v>
       </c>
       <c r="N32" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O32" t="n">
-        <v>727.3874636142355</v>
+        <v>641.3060585282446</v>
       </c>
       <c r="P32" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q32" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R32" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37320,7 +37320,7 @@
         <v>989.6487598248956</v>
       </c>
       <c r="O35" t="n">
-        <v>575.5896386552608</v>
+        <v>641.3060585282446</v>
       </c>
       <c r="P35" t="n">
         <v>398.7619862193719</v>
@@ -37329,7 +37329,7 @@
         <v>250.7943048037195</v>
       </c>
       <c r="R35" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37542,31 +37542,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K38" t="n">
-        <v>337.1912865554005</v>
+        <v>526.991087344663</v>
       </c>
       <c r="L38" t="n">
-        <v>873.2513289427826</v>
+        <v>873.2513289427827</v>
       </c>
       <c r="M38" t="n">
-        <v>988.4346493230593</v>
+        <v>988.4346493230594</v>
       </c>
       <c r="N38" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O38" t="n">
-        <v>641.3060585282446</v>
+        <v>888.8531821509647</v>
       </c>
       <c r="P38" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q38" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R38" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,25 +37621,25 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K39" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L39" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M39" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N39" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O39" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P39" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q39" t="n">
         <v>159.2338966127272</v>
@@ -37700,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K40" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L40" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M40" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N40" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O40" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P40" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q40" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37782,19 +37782,19 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K41" t="n">
-        <v>661.3366991265652</v>
+        <v>556.5257492814169</v>
       </c>
       <c r="L41" t="n">
         <v>455.5901143923322</v>
       </c>
       <c r="M41" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N41" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O41" t="n">
-        <v>852.7555845359029</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P41" t="n">
         <v>720.5606943908545</v>
@@ -38019,22 +38019,22 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K44" t="n">
-        <v>337.1912865554005</v>
+        <v>635.0202028044811</v>
       </c>
       <c r="L44" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M44" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N44" t="n">
         <v>989.6487598248956</v>
       </c>
       <c r="O44" t="n">
-        <v>641.3060585282446</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P44" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q44" t="n">
         <v>250.7943048037195</v>
@@ -38101,7 +38101,7 @@
         <v>240.6709080609567</v>
       </c>
       <c r="L45" t="n">
-        <v>370.4021821340055</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M45" t="n">
         <v>451.7942679013292</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_6_23.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_6_23.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1278566.9916365</v>
+        <v>1281972.482760949</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6654055.582836238</v>
+        <v>6654055.582836239</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>806345.8827095093</v>
+        <v>806345.8827095096</v>
       </c>
     </row>
     <row r="9">
@@ -661,7 +661,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>138.3038958997682</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -673,10 +673,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>245.7296093848288</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -715,7 +715,7 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -816,10 +816,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>30.60408762095441</v>
       </c>
       <c r="C4" t="n">
-        <v>59.66385641544559</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -831,7 +831,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -861,7 +861,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -895,13 +895,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -910,7 +910,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>110.2678425717802</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -943,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -955,13 +955,13 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>5.791117132838708</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -1059,7 +1059,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -1068,7 +1068,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>59.72683757586863</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>11.90975838011561</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1098,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1144,16 +1144,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>17.02555585116066</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>64.76935934992309</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,10 +1180,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1192,16 +1192,16 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1296,25 +1296,25 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>129.0246247964033</v>
       </c>
       <c r="I10" t="n">
-        <v>14.46389722690839</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1347,10 +1347,10 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1390,7 +1390,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292636</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>109.1877617881758</v>
+        <v>109.187761788176</v>
       </c>
       <c r="T11" t="n">
         <v>203.9179701396201</v>
@@ -1469,7 +1469,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I12" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,10 +1496,10 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734107401</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S12" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T12" t="n">
         <v>190.7165703189231</v>
@@ -1530,22 +1530,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>122.494369629079</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0258082590282</v>
+        <v>158.8193662474792</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1575,28 +1575,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004732</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1627,7 +1627,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292636</v>
+        <v>41.57692977292547</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1706,7 +1706,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I15" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,10 +1733,10 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S15" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T15" t="n">
         <v>190.7165703189231</v>
@@ -1764,19 +1764,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>74.7576914549245</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1812,13 +1812,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004732</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>286.2118382056129</v>
@@ -1830,7 +1830,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>156.5892371762728</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1858,13 +1858,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>410.9217256534534</v>
+        <v>410.921725653453</v>
       </c>
       <c r="H17" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1900,7 +1900,7 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9951719589025</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -1943,7 +1943,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I18" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247747</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1970,10 +1970,10 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734107401</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S18" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T18" t="n">
         <v>190.7165703189231</v>
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>163.6898441249715</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2016,7 +2016,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>114.4746605491556</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2049,13 +2049,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S19" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>286.2118382056129</v>
@@ -2101,7 +2101,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2180,7 +2180,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I21" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2207,10 +2207,10 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S21" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T21" t="n">
         <v>190.7165703189231</v>
@@ -2238,10 +2238,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2256,10 +2256,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004732</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>189.7690253314419</v>
@@ -2295,19 +2295,19 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>168.2049238467875</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>61.17118126752781</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2338,7 +2338,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I23" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2417,7 +2417,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I24" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2444,10 +2444,10 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734107401</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S24" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T24" t="n">
         <v>190.7165703189231</v>
@@ -2475,22 +2475,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>59.95016842792778</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2523,13 +2523,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S25" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T25" t="n">
-        <v>203.4068132192033</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U25" t="n">
         <v>286.2118382056129</v>
@@ -2541,10 +2541,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2572,10 +2572,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H26" t="n">
-        <v>294.6077643873205</v>
+        <v>294.6077643873208</v>
       </c>
       <c r="I26" t="n">
-        <v>41.57692977292547</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2654,7 +2654,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I27" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2681,10 +2681,10 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S27" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T27" t="n">
         <v>190.7165703189231</v>
@@ -2712,25 +2712,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>163.6898441249715</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>139.890691243202</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S28" t="n">
         <v>189.7690253314419</v>
@@ -2769,19 +2769,19 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2918,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S30" t="n">
         <v>128.1435076414547</v>
@@ -2949,19 +2949,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>166.0258082590282</v>
@@ -3000,10 +3000,10 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>187.4330611973848</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>286.2118382056129</v>
@@ -3015,10 +3015,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>212.3425072646205</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3186,22 +3186,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>160.9770302814385</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3237,25 +3237,25 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>193.916079966938</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3322,7 +3322,7 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9951719589025</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3426,22 +3426,22 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>40.34116522361533</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>117.8851827056785</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3477,7 +3477,7 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>286.2118382056129</v>
@@ -3489,10 +3489,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3520,10 +3520,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H38" t="n">
-        <v>294.6077643873205</v>
+        <v>294.6077643873208</v>
       </c>
       <c r="I38" t="n">
-        <v>41.57692977292636</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3602,7 +3602,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I39" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3629,10 +3629,10 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S39" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T39" t="n">
         <v>190.7165703189231</v>
@@ -3660,22 +3660,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3717,7 +3717,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U40" t="n">
-        <v>270.069702148647</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3726,7 +3726,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>214.5360937958112</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -3751,7 +3751,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417118</v>
       </c>
       <c r="G41" t="n">
         <v>410.9217256534534</v>
@@ -3796,7 +3796,7 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U41" t="n">
-        <v>250.9951719589025</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3839,7 +3839,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I42" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3903,16 +3903,16 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>15.0743711067587</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>69.81472657146851</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3966,7 +3966,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -4103,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S45" t="n">
         <v>128.1435076414547</v>
@@ -4134,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -4146,10 +4146,10 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>119.1056687634345</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4182,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T46" t="n">
         <v>219.5489492761692</v>
@@ -4203,7 +4203,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>202.4425172951286</v>
       </c>
     </row>
   </sheetData>
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2247.308246834948</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="C2" t="n">
-        <v>2107.607341885688</v>
+        <v>1624.583944532628</v>
       </c>
       <c r="D2" t="n">
-        <v>1749.341643278937</v>
+        <v>1266.318245925878</v>
       </c>
       <c r="E2" t="n">
-        <v>1363.553390680693</v>
+        <v>880.5299933276337</v>
       </c>
       <c r="F2" t="n">
-        <v>952.5674858910851</v>
+        <v>469.5440885380262</v>
       </c>
       <c r="G2" t="n">
-        <v>534.603677789272</v>
+        <v>455.6206844766171</v>
       </c>
       <c r="H2" t="n">
         <v>207.4089578252748</v>
@@ -4330,13 +4330,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4363,19 +4363,19 @@
         <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2247.308246834948</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>2247.308246834948</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="W2" t="n">
-        <v>2247.308246834948</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="X2" t="n">
-        <v>2247.308246834948</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="Y2" t="n">
-        <v>2247.308246834948</v>
+        <v>1993.54646147304</v>
       </c>
     </row>
     <row r="3">
@@ -4409,31 +4409,31 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4464,19 +4464,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>728.1289842064344</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="C4" t="n">
-        <v>667.8624625746712</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="D4" t="n">
-        <v>517.7458231623355</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E4" t="n">
-        <v>369.8327295799424</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F4" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
         <v>53.94298182036445</v>
@@ -4509,31 +4509,31 @@
         <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="W4" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="X4" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="Y4" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600564</v>
       </c>
     </row>
     <row r="5">
@@ -4543,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1995.909162857192</v>
+        <v>1331.061315312042</v>
       </c>
       <c r="C5" t="n">
-        <v>1626.94664591678</v>
+        <v>962.0987983716307</v>
       </c>
       <c r="D5" t="n">
-        <v>1268.68094731003</v>
+        <v>962.0987983716307</v>
       </c>
       <c r="E5" t="n">
-        <v>882.8926947117852</v>
+        <v>576.3105457733864</v>
       </c>
       <c r="F5" t="n">
-        <v>471.9067899221776</v>
+        <v>165.3246409837788</v>
       </c>
       <c r="G5" t="n">
         <v>53.94298182036445</v>
@@ -4603,16 +4603,16 @@
         <v>2388.358616186807</v>
       </c>
       <c r="V5" t="n">
-        <v>2382.509002921313</v>
+        <v>2057.295728843236</v>
       </c>
       <c r="W5" t="n">
-        <v>2382.509002921313</v>
+        <v>1704.527073573122</v>
       </c>
       <c r="X5" t="n">
-        <v>2382.509002921313</v>
+        <v>1331.061315312042</v>
       </c>
       <c r="Y5" t="n">
-        <v>2382.509002921313</v>
+        <v>1331.061315312042</v>
       </c>
     </row>
     <row r="6">
@@ -4646,25 +4646,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
-        <v>2568.06040664989</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="C7" t="n">
-        <v>529.7758821321493</v>
+        <v>559.1928012785276</v>
       </c>
       <c r="D7" t="n">
-        <v>529.7758821321493</v>
+        <v>409.0761618661918</v>
       </c>
       <c r="E7" t="n">
-        <v>381.8627885497561</v>
+        <v>261.1630682837987</v>
       </c>
       <c r="F7" t="n">
-        <v>234.9728410518458</v>
+        <v>114.2731207858883</v>
       </c>
       <c r="G7" t="n">
-        <v>65.9730407901782</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>65.9730407901782</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>65.9730407901782</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4731,46 +4731,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="8">
@@ -4780,37 +4780,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2075.803581887074</v>
+        <v>1253.251950079336</v>
       </c>
       <c r="C8" t="n">
-        <v>1706.841064946663</v>
+        <v>884.2894331389243</v>
       </c>
       <c r="D8" t="n">
-        <v>1348.575366339912</v>
+        <v>526.0237345321739</v>
       </c>
       <c r="E8" t="n">
-        <v>962.787113741668</v>
+        <v>140.2354819339296</v>
       </c>
       <c r="F8" t="n">
-        <v>551.8012089520605</v>
+        <v>133.2899811847262</v>
       </c>
       <c r="G8" t="n">
-        <v>534.603677789272</v>
+        <v>119.3665771233171</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>119.3665771233171</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533143</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4822,34 +4822,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U8" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V8" t="n">
-        <v>2465.942913862886</v>
+        <v>2366.086203674652</v>
       </c>
       <c r="W8" t="n">
-        <v>2465.942913862886</v>
+        <v>2013.317548404538</v>
       </c>
       <c r="X8" t="n">
-        <v>2465.942913862886</v>
+        <v>1639.851790143458</v>
       </c>
       <c r="Y8" t="n">
-        <v>2075.803581887074</v>
+        <v>1639.851790143458</v>
       </c>
     </row>
     <row r="9">
@@ -4880,10 +4880,10 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
         <v>309.190302261463</v>
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>728.1289842064343</v>
+        <v>184.2708856551153</v>
       </c>
       <c r="C10" t="n">
-        <v>728.1289842064343</v>
+        <v>184.2708856551153</v>
       </c>
       <c r="D10" t="n">
-        <v>578.0123447940986</v>
+        <v>184.2708856551153</v>
       </c>
       <c r="E10" t="n">
-        <v>430.0992512117055</v>
+        <v>184.2708856551153</v>
       </c>
       <c r="F10" t="n">
-        <v>283.2093037137951</v>
+        <v>184.2708856551153</v>
       </c>
       <c r="G10" t="n">
-        <v>114.2095034521275</v>
+        <v>184.2708856551153</v>
       </c>
       <c r="H10" t="n">
-        <v>114.2095034521275</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -4971,43 +4971,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594902</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064343</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064343</v>
+        <v>184.2708856551153</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064343</v>
+        <v>184.2708856551153</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064343</v>
+        <v>184.2708856551153</v>
       </c>
       <c r="Y10" t="n">
-        <v>728.1289842064343</v>
+        <v>184.2708856551153</v>
       </c>
     </row>
     <row r="11">
@@ -5020,67 +5020,67 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C11" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D11" t="n">
         <v>1646.988141143014</v>
       </c>
       <c r="E11" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F11" t="n">
-        <v>850.2139837551624</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G11" t="n">
-        <v>435.1415336001589</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H11" t="n">
-        <v>137.5579332089261</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I11" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J11" t="n">
-        <v>284.44016540742</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K11" t="n">
-        <v>618.2595390972665</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L11" t="n">
-        <v>1482.778354750621</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M11" t="n">
-        <v>2461.32865758045</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N11" t="n">
-        <v>3362.809616117414</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O11" t="n">
-        <v>3865.782086996752</v>
+        <v>3482.142110232731</v>
       </c>
       <c r="P11" t="n">
-        <v>4260.55645335393</v>
+        <v>4195.497197679677</v>
       </c>
       <c r="Q11" t="n">
-        <v>4719.034655862918</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R11" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S11" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T11" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U11" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V11" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W11" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X11" t="n">
         <v>3150.95552873011</v>
@@ -5117,19 +5117,19 @@
         <v>114.5683260468564</v>
       </c>
       <c r="I12" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J12" t="n">
         <v>189.2383039390118</v>
       </c>
       <c r="K12" t="n">
-        <v>427.5025029193591</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L12" t="n">
-        <v>794.2006632320246</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M12" t="n">
-        <v>1241.476988454341</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N12" t="n">
         <v>1715.000032008795</v>
@@ -5141,7 +5141,7 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q12" t="n">
-        <v>2594.102460549553</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R12" t="n">
         <v>2593.958107142068</v>
@@ -5175,43 +5175,43 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>533.2127443498368</v>
+        <v>719.7238607267858</v>
       </c>
       <c r="C13" t="n">
-        <v>533.2127443498368</v>
+        <v>550.7876777988789</v>
       </c>
       <c r="D13" t="n">
-        <v>533.2127443498368</v>
+        <v>550.7876777988789</v>
       </c>
       <c r="E13" t="n">
-        <v>409.4810578558177</v>
+        <v>402.8745842164858</v>
       </c>
       <c r="F13" t="n">
-        <v>409.4810578558177</v>
+        <v>255.9846367185754</v>
       </c>
       <c r="G13" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H13" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I13" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J13" t="n">
         <v>140.68366689533</v>
       </c>
       <c r="K13" t="n">
-        <v>344.6708498442065</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L13" t="n">
-        <v>661.2306482927027</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M13" t="n">
-        <v>1005.387693892252</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N13" t="n">
-        <v>1346.796070598117</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O13" t="n">
         <v>1646.12566951853</v>
@@ -5223,28 +5223,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R13" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S13" t="n">
-        <v>1674.827124689059</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T13" t="n">
-        <v>1453.060509258585</v>
+        <v>1734.57685067423</v>
       </c>
       <c r="U13" t="n">
-        <v>1453.060509258585</v>
+        <v>1445.473983799873</v>
       </c>
       <c r="V13" t="n">
-        <v>1453.060509258585</v>
+        <v>1190.789495593986</v>
       </c>
       <c r="W13" t="n">
-        <v>1163.643339221624</v>
+        <v>901.3723255570255</v>
       </c>
       <c r="X13" t="n">
-        <v>935.6537883236067</v>
+        <v>901.3723255570255</v>
       </c>
       <c r="Y13" t="n">
-        <v>714.8612091800766</v>
+        <v>901.3723255570255</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C14" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D14" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E14" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F14" t="n">
-        <v>850.2139837551624</v>
+        <v>850.2139837551615</v>
       </c>
       <c r="G14" t="n">
-        <v>435.1415336001589</v>
+        <v>435.141533600158</v>
       </c>
       <c r="H14" t="n">
-        <v>137.5579332089261</v>
+        <v>137.5579332089252</v>
       </c>
       <c r="I14" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J14" t="n">
-        <v>284.44016540742</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K14" t="n">
-        <v>618.2595390972665</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L14" t="n">
-        <v>1482.778354750621</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M14" t="n">
-        <v>2461.32865758045</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N14" t="n">
-        <v>3362.809616117414</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O14" t="n">
-        <v>3865.782086996752</v>
+        <v>3482.142110232731</v>
       </c>
       <c r="P14" t="n">
-        <v>4260.55645335393</v>
+        <v>4195.497197679677</v>
       </c>
       <c r="Q14" t="n">
-        <v>4719.034655862918</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R14" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S14" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T14" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U14" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V14" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W14" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X14" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y14" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="15">
@@ -5333,28 +5333,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>970.5927724973199</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C15" t="n">
-        <v>796.1397432161929</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D15" t="n">
-        <v>647.2053335549417</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E15" t="n">
-        <v>487.9678785494862</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F15" t="n">
-        <v>341.4333205763712</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G15" t="n">
-        <v>205.0702204089893</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H15" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I15" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J15" t="n">
         <v>189.2383039390118</v>
@@ -5363,7 +5363,7 @@
         <v>427.5025029193589</v>
       </c>
       <c r="L15" t="n">
-        <v>794.2006632320245</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M15" t="n">
         <v>1241.47698845434</v>
@@ -5378,7 +5378,7 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q15" t="n">
-        <v>2594.102460549553</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R15" t="n">
         <v>2593.958107142068</v>
@@ -5387,22 +5387,22 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T15" t="n">
-        <v>2271.877220313404</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U15" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V15" t="n">
         <v>1808.657265216076</v>
       </c>
       <c r="W15" t="n">
-        <v>1554.419908487875</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X15" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y15" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="16">
@@ -5412,43 +5412,43 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>171.0738540998333</v>
+        <v>562.5269503710301</v>
       </c>
       <c r="C16" t="n">
-        <v>171.0738540998333</v>
+        <v>393.5907674431232</v>
       </c>
       <c r="D16" t="n">
-        <v>171.0738540998333</v>
+        <v>243.4741280307875</v>
       </c>
       <c r="E16" t="n">
-        <v>171.0738540998333</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="F16" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="G16" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H16" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I16" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J16" t="n">
         <v>140.68366689533</v>
       </c>
       <c r="K16" t="n">
-        <v>344.6708498442065</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L16" t="n">
-        <v>661.2306482927027</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M16" t="n">
-        <v>1005.387693892252</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N16" t="n">
-        <v>1346.796070598117</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O16" t="n">
         <v>1646.12566951853</v>
@@ -5460,28 +5460,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R16" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S16" t="n">
-        <v>1674.827124689059</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T16" t="n">
-        <v>1453.060509258585</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="U16" t="n">
-        <v>1163.957642384228</v>
+        <v>1667.240599230347</v>
       </c>
       <c r="V16" t="n">
-        <v>909.2731541783413</v>
+        <v>1412.556111024461</v>
       </c>
       <c r="W16" t="n">
-        <v>619.8559841413808</v>
+        <v>1123.1389409875</v>
       </c>
       <c r="X16" t="n">
-        <v>391.8664332433634</v>
+        <v>964.9679943448</v>
       </c>
       <c r="Y16" t="n">
-        <v>171.0738540998333</v>
+        <v>744.1754152012699</v>
       </c>
     </row>
     <row r="17">
@@ -5491,31 +5491,31 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C17" t="n">
         <v>2005.253839749764</v>
       </c>
       <c r="D17" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E17" t="n">
         <v>1261.199888544769</v>
       </c>
       <c r="F17" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551615</v>
       </c>
       <c r="G17" t="n">
-        <v>435.1415336001584</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H17" t="n">
-        <v>137.5579332089256</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I17" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J17" t="n">
-        <v>451.845814427773</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K17" t="n">
         <v>1106.569146563073</v>
@@ -5530,37 +5530,37 @@
         <v>2637.914081542188</v>
       </c>
       <c r="O17" t="n">
-        <v>3482.142110232732</v>
+        <v>3482.142110232731</v>
       </c>
       <c r="P17" t="n">
-        <v>4195.497197679678</v>
+        <v>4195.497197679677</v>
       </c>
       <c r="Q17" t="n">
-        <v>4653.975400188666</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R17" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S17" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T17" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U17" t="n">
         <v>4208.252829604874</v>
       </c>
       <c r="V17" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W17" t="n">
         <v>3524.421286991189</v>
       </c>
       <c r="X17" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y17" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="18">
@@ -5570,40 +5570,40 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973196</v>
       </c>
       <c r="C18" t="n">
-        <v>796.1397432161925</v>
+        <v>796.1397432161926</v>
       </c>
       <c r="D18" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549414</v>
       </c>
       <c r="E18" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F18" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G18" t="n">
-        <v>205.0702204089889</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H18" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I18" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J18" t="n">
         <v>189.2383039390118</v>
       </c>
       <c r="K18" t="n">
-        <v>427.5025029193591</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L18" t="n">
-        <v>794.2006632320246</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M18" t="n">
-        <v>1241.476988454341</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N18" t="n">
         <v>1715.000032008795</v>
@@ -5615,7 +5615,7 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q18" t="n">
-        <v>2594.102460549553</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R18" t="n">
         <v>2593.958107142068</v>
@@ -5627,7 +5627,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U18" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V18" t="n">
         <v>1808.657265216076</v>
@@ -5636,10 +5636,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X18" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y18" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="19">
@@ -5649,43 +5649,43 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>95.56103444839442</v>
+        <v>211.1920047000667</v>
       </c>
       <c r="C19" t="n">
-        <v>95.56103444839442</v>
+        <v>211.1920047000667</v>
       </c>
       <c r="D19" t="n">
-        <v>95.56103444839442</v>
+        <v>211.1920047000667</v>
       </c>
       <c r="E19" t="n">
-        <v>95.56103444839442</v>
+        <v>211.1920047000667</v>
       </c>
       <c r="F19" t="n">
-        <v>95.56103444839442</v>
+        <v>211.1920047000667</v>
       </c>
       <c r="G19" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H19" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I19" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J19" t="n">
         <v>140.68366689533</v>
       </c>
       <c r="K19" t="n">
-        <v>344.6708498442065</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L19" t="n">
-        <v>661.2306482927027</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M19" t="n">
-        <v>1005.387693892252</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N19" t="n">
-        <v>1346.796070598117</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O19" t="n">
         <v>1646.12566951853</v>
@@ -5697,28 +5697,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R19" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S19" t="n">
-        <v>1764.657581931531</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T19" t="n">
-        <v>1542.890966501056</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="U19" t="n">
-        <v>1253.7880996267</v>
+        <v>1385.724257814702</v>
       </c>
       <c r="V19" t="n">
-        <v>999.1036114208131</v>
+        <v>1131.039769608815</v>
       </c>
       <c r="W19" t="n">
-        <v>709.6864413838525</v>
+        <v>841.6225995718539</v>
       </c>
       <c r="X19" t="n">
-        <v>481.6968904858352</v>
+        <v>613.6330486738366</v>
       </c>
       <c r="Y19" t="n">
-        <v>260.904311342305</v>
+        <v>392.8404695303064</v>
       </c>
     </row>
     <row r="20">
@@ -5728,19 +5728,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C20" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D20" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E20" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F20" t="n">
-        <v>850.2139837551626</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G20" t="n">
         <v>435.1415336001585</v>
@@ -5749,55 +5749,55 @@
         <v>137.5579332089257</v>
       </c>
       <c r="I20" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J20" t="n">
-        <v>284.44016540742</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K20" t="n">
-        <v>618.2595390972665</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L20" t="n">
-        <v>1482.778354750621</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M20" t="n">
-        <v>2461.32865758045</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N20" t="n">
-        <v>3441.080929807097</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O20" t="n">
-        <v>4010.914672075805</v>
+        <v>3482.142110232731</v>
       </c>
       <c r="P20" t="n">
-        <v>4405.689038432984</v>
+        <v>4195.497197679677</v>
       </c>
       <c r="Q20" t="n">
-        <v>4653.975400188666</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R20" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S20" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T20" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U20" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V20" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W20" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X20" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y20" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="21">
@@ -5807,43 +5807,43 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>970.5927724973199</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C21" t="n">
-        <v>796.1397432161929</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D21" t="n">
-        <v>647.2053335549417</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E21" t="n">
-        <v>487.9678785494862</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F21" t="n">
-        <v>341.4333205763712</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G21" t="n">
-        <v>205.0702204089893</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H21" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I21" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J21" t="n">
-        <v>189.2383039390115</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K21" t="n">
-        <v>427.5025029193587</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L21" t="n">
-        <v>794.2006632320238</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M21" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N21" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O21" t="n">
         <v>2125.96131142685</v>
@@ -5852,7 +5852,7 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q21" t="n">
-        <v>2594.102460549553</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R21" t="n">
         <v>2593.958107142068</v>
@@ -5861,22 +5861,22 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T21" t="n">
-        <v>2271.877220313404</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U21" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V21" t="n">
         <v>1808.657265216076</v>
       </c>
       <c r="W21" t="n">
-        <v>1554.419908487875</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X21" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y21" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="22">
@@ -5886,43 +5886,43 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>558.0669121539789</v>
+        <v>970.5459590456827</v>
       </c>
       <c r="C22" t="n">
-        <v>558.0669121539789</v>
+        <v>801.6097761177758</v>
       </c>
       <c r="D22" t="n">
-        <v>558.0669121539789</v>
+        <v>801.6097761177758</v>
       </c>
       <c r="E22" t="n">
-        <v>410.1538185715858</v>
+        <v>653.6966825353827</v>
       </c>
       <c r="F22" t="n">
-        <v>263.2638710736754</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="G22" t="n">
-        <v>95.56103444839442</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="H22" t="n">
-        <v>95.56103444839442</v>
+        <v>192.886711630049</v>
       </c>
       <c r="I22" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J22" t="n">
         <v>140.68366689533</v>
       </c>
       <c r="K22" t="n">
-        <v>344.6708498442065</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L22" t="n">
-        <v>661.2306482927027</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M22" t="n">
-        <v>1005.387693892252</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N22" t="n">
-        <v>1346.796070598117</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O22" t="n">
         <v>1646.12566951853</v>
@@ -5934,28 +5934,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R22" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S22" t="n">
-        <v>1674.827124689059</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T22" t="n">
-        <v>1453.060509258585</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U22" t="n">
-        <v>1163.957642384228</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="V22" t="n">
-        <v>909.2731541783413</v>
+        <v>1372.987003019452</v>
       </c>
       <c r="W22" t="n">
-        <v>619.8559841413808</v>
+        <v>1372.987003019452</v>
       </c>
       <c r="X22" t="n">
-        <v>558.0669121539789</v>
+        <v>1372.987003019452</v>
       </c>
       <c r="Y22" t="n">
-        <v>558.0669121539789</v>
+        <v>1152.194423875922</v>
       </c>
     </row>
     <row r="23">
@@ -5989,25 +5989,25 @@
         <v>95.56103444839441</v>
       </c>
       <c r="J23" t="n">
-        <v>284.44016540742</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K23" t="n">
-        <v>618.2595390972665</v>
+        <v>785.6651881176194</v>
       </c>
       <c r="L23" t="n">
-        <v>1482.778354750621</v>
+        <v>1236.699401366028</v>
       </c>
       <c r="M23" t="n">
-        <v>2461.32865758045</v>
+        <v>2215.249704195857</v>
       </c>
       <c r="N23" t="n">
-        <v>3441.080929807097</v>
+        <v>3195.001976422504</v>
       </c>
       <c r="O23" t="n">
-        <v>4010.914672075804</v>
+        <v>3697.97444730184</v>
       </c>
       <c r="P23" t="n">
-        <v>4405.689038432983</v>
+        <v>4195.497197679677</v>
       </c>
       <c r="Q23" t="n">
         <v>4653.975400188665</v>
@@ -6071,13 +6071,13 @@
         <v>189.2383039390118</v>
       </c>
       <c r="K24" t="n">
-        <v>427.5025029193591</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L24" t="n">
-        <v>794.2006632320246</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M24" t="n">
-        <v>1241.476988454341</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N24" t="n">
         <v>1715.000032008795</v>
@@ -6089,7 +6089,7 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q24" t="n">
-        <v>2594.102460549553</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R24" t="n">
         <v>2593.958107142068</v>
@@ -6123,19 +6123,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>95.56103444839441</v>
+        <v>619.8559841413803</v>
       </c>
       <c r="C25" t="n">
-        <v>95.56103444839441</v>
+        <v>450.9198012134734</v>
       </c>
       <c r="D25" t="n">
-        <v>95.56103444839441</v>
+        <v>450.9198012134734</v>
       </c>
       <c r="E25" t="n">
-        <v>95.56103444839441</v>
+        <v>303.0067076310803</v>
       </c>
       <c r="F25" t="n">
-        <v>95.56103444839441</v>
+        <v>156.1167601331699</v>
       </c>
       <c r="G25" t="n">
         <v>95.56103444839441</v>
@@ -6153,13 +6153,13 @@
         <v>344.6708498442064</v>
       </c>
       <c r="L25" t="n">
-        <v>661.2306482927027</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M25" t="n">
-        <v>1005.387693892252</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N25" t="n">
-        <v>1346.796070598117</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O25" t="n">
         <v>1646.12566951853</v>
@@ -6171,28 +6171,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R25" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S25" t="n">
-        <v>1764.657581931531</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T25" t="n">
-        <v>1559.196154437386</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U25" t="n">
-        <v>1270.093287563029</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V25" t="n">
-        <v>1015.408799357142</v>
+        <v>909.2731541783409</v>
       </c>
       <c r="W25" t="n">
-        <v>725.9916293201816</v>
+        <v>619.8559841413803</v>
       </c>
       <c r="X25" t="n">
-        <v>498.0020784221642</v>
+        <v>619.8559841413803</v>
       </c>
       <c r="Y25" t="n">
-        <v>277.2094992786341</v>
+        <v>619.8559841413803</v>
       </c>
     </row>
     <row r="26">
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C26" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D26" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E26" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F26" t="n">
-        <v>850.2139837551615</v>
+        <v>850.2139837551624</v>
       </c>
       <c r="G26" t="n">
-        <v>435.141533600158</v>
+        <v>435.1415336001589</v>
       </c>
       <c r="H26" t="n">
-        <v>137.5579332089252</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I26" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J26" t="n">
-        <v>451.845814427773</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K26" t="n">
-        <v>1106.569146563073</v>
+        <v>1034.340101969334</v>
       </c>
       <c r="L26" t="n">
-        <v>1557.603359811481</v>
+        <v>1898.858917622688</v>
       </c>
       <c r="M26" t="n">
-        <v>2091.135264483406</v>
+        <v>2432.390822294613</v>
       </c>
       <c r="N26" t="n">
-        <v>2637.914081542188</v>
+        <v>2979.169639353395</v>
       </c>
       <c r="O26" t="n">
-        <v>3482.142110232731</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P26" t="n">
-        <v>4195.497197679677</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q26" t="n">
-        <v>4653.975400188665</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R26" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S26" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T26" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U26" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V26" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W26" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X26" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y26" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="27">
@@ -6281,40 +6281,40 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C27" t="n">
-        <v>796.1397432161925</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D27" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E27" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F27" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G27" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H27" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I27" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J27" t="n">
         <v>189.2383039390118</v>
       </c>
       <c r="K27" t="n">
-        <v>427.5025029193591</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L27" t="n">
-        <v>794.2006632320246</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M27" t="n">
-        <v>1241.476988454341</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N27" t="n">
         <v>1715.000032008795</v>
@@ -6338,7 +6338,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U27" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V27" t="n">
         <v>1808.657265216076</v>
@@ -6347,10 +6347,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X27" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y27" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="28">
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>95.56103444839441</v>
+        <v>1016.727556222458</v>
       </c>
       <c r="C28" t="n">
-        <v>95.56103444839441</v>
+        <v>847.7913732945507</v>
       </c>
       <c r="D28" t="n">
-        <v>95.56103444839441</v>
+        <v>697.6747338822149</v>
       </c>
       <c r="E28" t="n">
-        <v>95.56103444839441</v>
+        <v>556.371005353728</v>
       </c>
       <c r="F28" t="n">
-        <v>95.56103444839441</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="G28" t="n">
-        <v>95.56103444839441</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="H28" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I28" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J28" t="n">
         <v>140.68366689533</v>
@@ -6390,13 +6390,13 @@
         <v>344.6708498442064</v>
       </c>
       <c r="L28" t="n">
-        <v>661.2306482927027</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M28" t="n">
-        <v>1005.387693892252</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N28" t="n">
-        <v>1346.796070598117</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O28" t="n">
         <v>1646.12566951853</v>
@@ -6408,28 +6408,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R28" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S28" t="n">
-        <v>1764.657581931531</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T28" t="n">
-        <v>1542.890966501056</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U28" t="n">
-        <v>1253.7880996267</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="V28" t="n">
-        <v>999.1036114208131</v>
+        <v>1198.376021052697</v>
       </c>
       <c r="W28" t="n">
-        <v>709.6864413838525</v>
+        <v>1198.376021052697</v>
       </c>
       <c r="X28" t="n">
-        <v>481.6968904858352</v>
+        <v>1198.376021052697</v>
       </c>
       <c r="Y28" t="n">
-        <v>260.904311342305</v>
+        <v>1198.376021052697</v>
       </c>
     </row>
     <row r="29">
@@ -6442,25 +6442,25 @@
         <v>2374.216356690175</v>
       </c>
       <c r="C29" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D29" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E29" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F29" t="n">
-        <v>850.2139837551617</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G29" t="n">
-        <v>435.1415336001583</v>
+        <v>435.1415336001586</v>
       </c>
       <c r="H29" t="n">
-        <v>137.5579332089255</v>
+        <v>137.5579332089258</v>
       </c>
       <c r="I29" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J29" t="n">
         <v>451.8458144277729</v>
@@ -6469,46 +6469,46 @@
         <v>1106.569146563073</v>
       </c>
       <c r="L29" t="n">
-        <v>1971.087962216427</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M29" t="n">
-        <v>2528.189928969821</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N29" t="n">
-        <v>3507.942201196468</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O29" t="n">
-        <v>4010.914672075804</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P29" t="n">
-        <v>4405.689038432983</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q29" t="n">
-        <v>4653.975400188665</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R29" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S29" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T29" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U29" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V29" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W29" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X29" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y29" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="30">
@@ -6518,37 +6518,37 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C30" t="n">
-        <v>796.1397432161925</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D30" t="n">
         <v>647.2053335549413</v>
       </c>
       <c r="E30" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F30" t="n">
         <v>341.4333205763708</v>
       </c>
       <c r="G30" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089891</v>
       </c>
       <c r="H30" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I30" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J30" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K30" t="n">
         <v>427.5025029193589</v>
       </c>
       <c r="L30" t="n">
-        <v>794.2006632320242</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M30" t="n">
         <v>1241.47698845434</v>
@@ -6575,7 +6575,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U30" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V30" t="n">
         <v>1808.657265216076</v>
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>263.2638710736754</v>
+        <v>727.0030950818858</v>
       </c>
       <c r="C31" t="n">
-        <v>263.2638710736754</v>
+        <v>558.0669121539789</v>
       </c>
       <c r="D31" t="n">
-        <v>263.2638710736754</v>
+        <v>558.0669121539789</v>
       </c>
       <c r="E31" t="n">
-        <v>263.2638710736754</v>
+        <v>410.1538185715858</v>
       </c>
       <c r="F31" t="n">
         <v>263.2638710736754</v>
       </c>
       <c r="G31" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H31" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I31" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J31" t="n">
         <v>140.68366689533</v>
@@ -6648,25 +6648,25 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S31" t="n">
-        <v>1767.017141662901</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T31" t="n">
-        <v>1545.250526232427</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="U31" t="n">
-        <v>1256.147659358071</v>
+        <v>1667.240599230347</v>
       </c>
       <c r="V31" t="n">
-        <v>1001.463171152184</v>
+        <v>1412.556111024461</v>
       </c>
       <c r="W31" t="n">
-        <v>712.0460011152229</v>
+        <v>1123.1389409875</v>
       </c>
       <c r="X31" t="n">
-        <v>484.0564502172056</v>
+        <v>908.6515599121255</v>
       </c>
       <c r="Y31" t="n">
-        <v>263.2638710736754</v>
+        <v>908.6515599121255</v>
       </c>
     </row>
     <row r="32">
@@ -6703,22 +6703,22 @@
         <v>284.4401654074198</v>
       </c>
       <c r="K32" t="n">
-        <v>618.2595390972663</v>
+        <v>939.1634975427194</v>
       </c>
       <c r="L32" t="n">
-        <v>1482.778354750621</v>
+        <v>1586.925993846824</v>
       </c>
       <c r="M32" t="n">
-        <v>2461.32865758045</v>
+        <v>2120.457898518748</v>
       </c>
       <c r="N32" t="n">
-        <v>3441.080929807096</v>
+        <v>2667.236715577531</v>
       </c>
       <c r="O32" t="n">
-        <v>4075.973927750058</v>
+        <v>3547.201365906985</v>
       </c>
       <c r="P32" t="n">
-        <v>4470.748294107237</v>
+        <v>4260.556453353931</v>
       </c>
       <c r="Q32" t="n">
         <v>4719.034655862919</v>
@@ -6755,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973203</v>
       </c>
       <c r="C33" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161933</v>
       </c>
       <c r="D33" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549422</v>
       </c>
       <c r="E33" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494866</v>
       </c>
       <c r="F33" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763717</v>
       </c>
       <c r="G33" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089899</v>
       </c>
       <c r="H33" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I33" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J33" t="n">
-        <v>189.2383039390118</v>
+        <v>189.238303939012</v>
       </c>
       <c r="K33" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193594</v>
       </c>
       <c r="L33" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320249</v>
       </c>
       <c r="M33" t="n">
-        <v>1241.47698845434</v>
+        <v>1241.476988454341</v>
       </c>
       <c r="N33" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008796</v>
       </c>
       <c r="O33" t="n">
         <v>2125.96131142685</v>
       </c>
       <c r="P33" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q33" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549553</v>
       </c>
       <c r="R33" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S33" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T33" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313404</v>
       </c>
       <c r="U33" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.80937344782</v>
       </c>
       <c r="V33" t="n">
-        <v>1808.657265216076</v>
+        <v>1808.657265216077</v>
       </c>
       <c r="W33" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487875</v>
       </c>
       <c r="X33" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y33" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="34">
@@ -6834,19 +6834,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>393.5907674431232</v>
+        <v>579.0900014994927</v>
       </c>
       <c r="C34" t="n">
-        <v>393.5907674431232</v>
+        <v>410.1538185715858</v>
       </c>
       <c r="D34" t="n">
-        <v>243.4741280307875</v>
+        <v>410.1538185715858</v>
       </c>
       <c r="E34" t="n">
-        <v>95.56103444839442</v>
+        <v>410.1538185715858</v>
       </c>
       <c r="F34" t="n">
-        <v>95.56103444839442</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G34" t="n">
         <v>95.56103444839442</v>
@@ -6885,25 +6885,25 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S34" t="n">
-        <v>1764.65758193153</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T34" t="n">
-        <v>1542.890966501056</v>
+        <v>1734.57685067423</v>
       </c>
       <c r="U34" t="n">
-        <v>1253.788099626699</v>
+        <v>1734.57685067423</v>
       </c>
       <c r="V34" t="n">
-        <v>999.1036114208126</v>
+        <v>1479.892362468343</v>
       </c>
       <c r="W34" t="n">
-        <v>803.2287831713803</v>
+        <v>1190.475192431382</v>
       </c>
       <c r="X34" t="n">
-        <v>575.239232273363</v>
+        <v>962.4856415333647</v>
       </c>
       <c r="Y34" t="n">
-        <v>575.239232273363</v>
+        <v>741.6930623898346</v>
       </c>
     </row>
     <row r="35">
@@ -6913,7 +6913,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C35" t="n">
         <v>2005.253839749764</v>
@@ -6922,19 +6922,19 @@
         <v>1646.988141143014</v>
       </c>
       <c r="E35" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F35" t="n">
         <v>850.213983755162</v>
       </c>
       <c r="G35" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001584</v>
       </c>
       <c r="H35" t="n">
         <v>137.5579332089257</v>
       </c>
       <c r="I35" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J35" t="n">
         <v>284.4401654074198</v>
@@ -6955,34 +6955,34 @@
         <v>4075.973927750058</v>
       </c>
       <c r="P35" t="n">
-        <v>4470.748294107237</v>
+        <v>4470.748294107236</v>
       </c>
       <c r="Q35" t="n">
-        <v>4719.034655862919</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R35" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S35" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T35" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U35" t="n">
         <v>4208.252829604874</v>
       </c>
       <c r="V35" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W35" t="n">
         <v>3524.421286991189</v>
       </c>
       <c r="X35" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y35" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="36">
@@ -7010,28 +7010,28 @@
         <v>205.0702204089889</v>
       </c>
       <c r="H36" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I36" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J36" t="n">
-        <v>189.2383039390115</v>
+        <v>189.238303939012</v>
       </c>
       <c r="K36" t="n">
-        <v>427.5025029193587</v>
+        <v>427.502502919359</v>
       </c>
       <c r="L36" t="n">
-        <v>794.2006632320242</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M36" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N36" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O36" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P36" t="n">
         <v>2436.460902902952</v>
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>680.5797464134954</v>
+        <v>895.1493900894825</v>
       </c>
       <c r="C37" t="n">
-        <v>511.6435634855885</v>
+        <v>854.4007383484569</v>
       </c>
       <c r="D37" t="n">
-        <v>361.5269240732528</v>
+        <v>704.2840989361212</v>
       </c>
       <c r="E37" t="n">
-        <v>361.5269240732528</v>
+        <v>556.371005353728</v>
       </c>
       <c r="F37" t="n">
-        <v>214.6369765753424</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="G37" t="n">
-        <v>95.56103444839442</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="H37" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I37" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J37" t="n">
         <v>140.68366689533</v>
@@ -7125,22 +7125,22 @@
         <v>1956.343466104704</v>
       </c>
       <c r="T37" t="n">
-        <v>1734.57685067423</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="U37" t="n">
-        <v>1445.473983799873</v>
+        <v>1667.240599230347</v>
       </c>
       <c r="V37" t="n">
-        <v>1190.789495593986</v>
+        <v>1412.556111024461</v>
       </c>
       <c r="W37" t="n">
-        <v>901.3723255570255</v>
+        <v>1123.1389409875</v>
       </c>
       <c r="X37" t="n">
-        <v>901.3723255570255</v>
+        <v>895.1493900894825</v>
       </c>
       <c r="Y37" t="n">
-        <v>680.5797464134954</v>
+        <v>895.1493900894825</v>
       </c>
     </row>
     <row r="38">
@@ -7168,34 +7168,34 @@
         <v>435.1415336001589</v>
       </c>
       <c r="H38" t="n">
-        <v>137.5579332089261</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I38" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J38" t="n">
-        <v>284.44016540742</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K38" t="n">
-        <v>806.1613418786363</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L38" t="n">
-        <v>1670.680157531991</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M38" t="n">
-        <v>2649.23046036182</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N38" t="n">
-        <v>3196.009277420602</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O38" t="n">
         <v>4075.973927750058</v>
       </c>
       <c r="P38" t="n">
-        <v>4470.748294107236</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q38" t="n">
-        <v>4719.034655862918</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R38" t="n">
         <v>4778.051722419721</v>
@@ -7244,10 +7244,10 @@
         <v>341.4333205763708</v>
       </c>
       <c r="G39" t="n">
-        <v>205.0702204089894</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H39" t="n">
-        <v>114.5683260468566</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I39" t="n">
         <v>95.56103444839442</v>
@@ -7256,10 +7256,10 @@
         <v>189.2383039390118</v>
       </c>
       <c r="K39" t="n">
-        <v>427.502502919359</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L39" t="n">
-        <v>794.2006632320245</v>
+        <v>794.2006632320241</v>
       </c>
       <c r="M39" t="n">
         <v>1241.47698845434</v>
@@ -7268,7 +7268,7 @@
         <v>1715.000032008795</v>
       </c>
       <c r="O39" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P39" t="n">
         <v>2436.460902902953</v>
@@ -7308,19 +7308,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>95.56103444839442</v>
+        <v>561.2936040684043</v>
       </c>
       <c r="C40" t="n">
-        <v>95.56103444839442</v>
+        <v>561.2936040684043</v>
       </c>
       <c r="D40" t="n">
-        <v>95.56103444839442</v>
+        <v>411.1769646560685</v>
       </c>
       <c r="E40" t="n">
-        <v>95.56103444839442</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="F40" t="n">
-        <v>95.56103444839442</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G40" t="n">
         <v>95.56103444839442</v>
@@ -7335,16 +7335,16 @@
         <v>140.68366689533</v>
       </c>
       <c r="K40" t="n">
-        <v>344.6708498442065</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L40" t="n">
-        <v>661.2306482927027</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M40" t="n">
-        <v>1005.387693892252</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N40" t="n">
-        <v>1346.796070598117</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O40" t="n">
         <v>1646.12566951853</v>
@@ -7359,25 +7359,25 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S40" t="n">
-        <v>1764.657581931531</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T40" t="n">
         <v>1542.890966501056</v>
       </c>
       <c r="U40" t="n">
-        <v>1270.093287563029</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="V40" t="n">
-        <v>1015.408799357142</v>
+        <v>1288.206478295169</v>
       </c>
       <c r="W40" t="n">
-        <v>725.9916293201816</v>
+        <v>998.7893082582084</v>
       </c>
       <c r="X40" t="n">
-        <v>498.0020784221642</v>
+        <v>782.0861832119344</v>
       </c>
       <c r="Y40" t="n">
-        <v>277.2094992786341</v>
+        <v>561.2936040684043</v>
       </c>
     </row>
     <row r="41">
@@ -7390,13 +7390,13 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C41" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D41" t="n">
         <v>1646.988141143014</v>
       </c>
       <c r="E41" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F41" t="n">
         <v>850.213983755162</v>
@@ -7411,19 +7411,19 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J41" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K41" t="n">
-        <v>1002.806306216376</v>
+        <v>939.1634975427194</v>
       </c>
       <c r="L41" t="n">
-        <v>1453.840519464784</v>
+        <v>1390.197710791128</v>
       </c>
       <c r="M41" t="n">
-        <v>2432.390822294613</v>
+        <v>2368.748013620957</v>
       </c>
       <c r="N41" t="n">
-        <v>2979.169639353395</v>
+        <v>2915.526830679739</v>
       </c>
       <c r="O41" t="n">
         <v>3482.142110232732</v>
@@ -7444,13 +7444,13 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U41" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V41" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W41" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X41" t="n">
         <v>3150.95552873011</v>
@@ -7466,43 +7466,43 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>970.5927724973196</v>
+        <v>970.5927724973203</v>
       </c>
       <c r="C42" t="n">
-        <v>796.1397432161926</v>
+        <v>796.1397432161933</v>
       </c>
       <c r="D42" t="n">
-        <v>647.2053335549414</v>
+        <v>647.2053335549422</v>
       </c>
       <c r="E42" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494866</v>
       </c>
       <c r="F42" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763717</v>
       </c>
       <c r="G42" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089899</v>
       </c>
       <c r="H42" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I42" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J42" t="n">
-        <v>189.2383039390118</v>
+        <v>189.238303939012</v>
       </c>
       <c r="K42" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193594</v>
       </c>
       <c r="L42" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320249</v>
       </c>
       <c r="M42" t="n">
-        <v>1241.47698845434</v>
+        <v>1241.476988454341</v>
       </c>
       <c r="N42" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008796</v>
       </c>
       <c r="O42" t="n">
         <v>2125.96131142685</v>
@@ -7511,7 +7511,7 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q42" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549553</v>
       </c>
       <c r="R42" t="n">
         <v>2593.958107142068</v>
@@ -7520,16 +7520,16 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T42" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313404</v>
       </c>
       <c r="U42" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.80937344782</v>
       </c>
       <c r="V42" t="n">
-        <v>1808.657265216076</v>
+        <v>1808.657265216077</v>
       </c>
       <c r="W42" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487875</v>
       </c>
       <c r="X42" t="n">
         <v>1346.568408282342</v>
@@ -7545,19 +7545,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>260.9043113423046</v>
+        <v>481.6968904858347</v>
       </c>
       <c r="C43" t="n">
-        <v>260.9043113423046</v>
+        <v>481.6968904858347</v>
       </c>
       <c r="D43" t="n">
-        <v>110.7876719299689</v>
+        <v>481.6968904858347</v>
       </c>
       <c r="E43" t="n">
-        <v>95.56103444839442</v>
+        <v>333.7837969034416</v>
       </c>
       <c r="F43" t="n">
-        <v>95.56103444839442</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G43" t="n">
         <v>95.56103444839442</v>
@@ -7614,7 +7614,7 @@
         <v>481.6968904858347</v>
       </c>
       <c r="Y43" t="n">
-        <v>260.9043113423046</v>
+        <v>481.6968904858347</v>
       </c>
     </row>
     <row r="44">
@@ -7642,7 +7642,7 @@
         <v>435.1415336001592</v>
       </c>
       <c r="H44" t="n">
-        <v>137.5579332089261</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I44" t="n">
         <v>95.56103444839442</v>
@@ -7651,25 +7651,25 @@
         <v>284.4401654074198</v>
       </c>
       <c r="K44" t="n">
-        <v>913.1101661838561</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L44" t="n">
-        <v>1364.144379432265</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M44" t="n">
-        <v>1897.67628410419</v>
+        <v>2016.310259422546</v>
       </c>
       <c r="N44" t="n">
-        <v>2877.428556330836</v>
+        <v>2602.177459903277</v>
       </c>
       <c r="O44" t="n">
-        <v>3757.393206660291</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P44" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q44" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R44" t="n">
         <v>4778.051722419721</v>
@@ -7703,37 +7703,37 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C45" t="n">
-        <v>796.1397432161924</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D45" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E45" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F45" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G45" t="n">
-        <v>205.0702204089891</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H45" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I45" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J45" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K45" t="n">
         <v>427.5025029193589</v>
       </c>
       <c r="L45" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M45" t="n">
         <v>1241.47698845434</v>
@@ -7769,10 +7769,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X45" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y45" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="46">
@@ -7782,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>362.7597382730063</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C46" t="n">
-        <v>362.7597382730063</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D46" t="n">
-        <v>362.7597382730063</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E46" t="n">
-        <v>362.7597382730063</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F46" t="n">
-        <v>215.8697907750959</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G46" t="n">
         <v>95.56103444839442</v>
@@ -7830,28 +7830,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R46" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S46" t="n">
-        <v>1866.513008862232</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T46" t="n">
-        <v>1644.746393431758</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U46" t="n">
-        <v>1355.643526557401</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V46" t="n">
-        <v>1100.959038351514</v>
+        <v>999.1036114208126</v>
       </c>
       <c r="W46" t="n">
-        <v>811.5418683145538</v>
+        <v>709.6864413838521</v>
       </c>
       <c r="X46" t="n">
-        <v>583.5523174165364</v>
+        <v>481.6968904858347</v>
       </c>
       <c r="Y46" t="n">
-        <v>362.7597382730063</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
   </sheetData>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8069,7 +8069,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
-        <v>359.9065542451756</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951776</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>166.6588033951786</v>
+        <v>90.64146763747119</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8689,31 +8689,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L11" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>358.2849913921026</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>344.7025836476829</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q11" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8926,31 +8926,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>358.2849913921026</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>344.7025836476829</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q14" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9178,7 +9178,7 @@
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>344.7025836476831</v>
+        <v>344.7025836476829</v>
       </c>
       <c r="P17" t="n">
         <v>321.7987081714826</v>
@@ -9400,28 +9400,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L20" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>67.5366377670415</v>
+        <v>344.7025836476829</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
         <v>65.71641987298243</v>
@@ -9637,13 +9637,13 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
         <v>449.5135334928325</v>
@@ -9652,13 +9652,13 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O23" t="n">
-        <v>67.53663776704059</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>103.7862464855135</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
         <v>65.71641987298243</v>
@@ -9740,7 +9740,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>-9.481304630298837e-13</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9877,10 +9877,10 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
-        <v>324.1454125711647</v>
+        <v>251.1867816683982</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
@@ -9889,7 +9889,7 @@
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>344.7025836476822</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
         <v>321.7987081714826</v>
@@ -10117,22 +10117,22 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L29" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>23.80814351663537</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
         <v>65.71641987298243</v>
@@ -10351,25 +10351,25 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L32" t="n">
-        <v>417.6612145504504</v>
+        <v>198.7154374299952</v>
       </c>
       <c r="M32" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>133.2530576400255</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -10600,7 +10600,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O35" t="n">
-        <v>133.2530576400255</v>
+        <v>133.2530576400246</v>
       </c>
       <c r="P35" t="n">
         <v>0</v>
@@ -10825,7 +10825,7 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>189.7998007892624</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
         <v>417.6612145504504</v>
@@ -10834,10 +10834,10 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O38" t="n">
-        <v>380.8001812627454</v>
+        <v>133.2530576400255</v>
       </c>
       <c r="P38" t="n">
         <v>0</v>
@@ -11059,10 +11059,10 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>219.3344627260164</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
@@ -11074,7 +11074,7 @@
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>64.28566532692525</v>
       </c>
       <c r="P41" t="n">
         <v>321.7987081714826</v>
@@ -11299,16 +11299,16 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>297.8289162490806</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>437.3469244119842</v>
+        <v>39.4832155777267</v>
       </c>
       <c r="O44" t="n">
         <v>380.8001812627454</v>
@@ -11317,10 +11317,10 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -23418,22 +23418,22 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>23.93959301749018</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>7.206442011549001</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
         <v>96.35242040983809</v>
@@ -23463,28 +23463,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23652,19 +23652,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>70.66335656800675</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>166.0258082590282</v>
@@ -23700,13 +23700,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23718,7 +23718,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>69.12041821276432</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23889,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>16.1421360569658</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -23904,7 +23904,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>166.0258082590282</v>
+        <v>51.55114770987262</v>
       </c>
       <c r="H19" t="n">
         <v>144.7550149143208</v>
@@ -23937,13 +23937,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004732</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -24126,10 +24126,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24144,10 +24144,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24183,19 +24183,19 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>83.93271947704048</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>164.5384741215094</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24363,22 +24363,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.0258082590282</v>
+        <v>106.0756398311004</v>
       </c>
       <c r="H25" t="n">
         <v>144.7550149143208</v>
@@ -24411,13 +24411,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>88.93215267004732</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>16.14213605696585</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24429,10 +24429,10 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24600,25 +24600,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>16.1421360569658</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>6.543271403367157</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>96.35242040983809</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>88.93215267004732</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24657,19 +24657,19 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24837,19 +24837,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24888,10 +24888,10 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S31" t="n">
-        <v>2.335964134057093</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24903,10 +24903,10 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>13.36714812441662</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25074,22 +25074,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>18.85494990049881</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>144.7550149143208</v>
@@ -25125,25 +25125,25 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>92.60691836965302</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25314,22 +25314,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>126.9056558750125</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>48.14062555334974</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>96.35242040983809</v>
@@ -25365,7 +25365,7 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25377,10 +25377,10 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25548,22 +25548,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>144.7550149143208</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>88.93215267004732</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25605,7 +25605,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>16.14213605696591</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25614,7 +25614,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>11.17356159322594</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25791,16 +25791,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>131.3595915398105</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>75.60632145146273</v>
       </c>
       <c r="G43" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>144.7550149143208</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26022,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -26034,10 +26034,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>46.92013949559373</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H46" t="n">
         <v>144.7550149143208</v>
@@ -26070,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S46" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26091,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>16.14213605696617</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>953968.8932518226</v>
+        <v>953968.8932518224</v>
       </c>
     </row>
     <row r="6">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>953968.8932518226</v>
+        <v>953968.8932518224</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>953968.8932518226</v>
+        <v>953968.8932518224</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>953968.8932518224</v>
+        <v>953968.8932518226</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>953968.8932518226</v>
+        <v>953968.8932518224</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>953968.8932518226</v>
+        <v>953968.8932518224</v>
       </c>
     </row>
   </sheetData>
@@ -26313,25 +26313,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>472099.017671963</v>
+        <v>472099.0176719629</v>
       </c>
       <c r="C2" t="n">
         <v>472099.0176719629</v>
       </c>
       <c r="D2" t="n">
-        <v>472099.017671963</v>
+        <v>472099.0176719629</v>
       </c>
       <c r="E2" t="n">
         <v>456644.0549200309</v>
       </c>
       <c r="F2" t="n">
-        <v>456644.0549200307</v>
+        <v>456644.0549200309</v>
       </c>
       <c r="G2" t="n">
         <v>456644.0549200309</v>
       </c>
       <c r="H2" t="n">
-        <v>456644.0549200308</v>
+        <v>456644.0549200309</v>
       </c>
       <c r="I2" t="n">
         <v>456644.0549200308</v>
@@ -26340,7 +26340,7 @@
         <v>456644.0549200308</v>
       </c>
       <c r="K2" t="n">
-        <v>456644.0549200309</v>
+        <v>456644.054920031</v>
       </c>
       <c r="L2" t="n">
         <v>456644.0549200308</v>
@@ -26349,7 +26349,7 @@
         <v>456644.0549200309</v>
       </c>
       <c r="N2" t="n">
-        <v>456644.0549200306</v>
+        <v>456644.0549200308</v>
       </c>
       <c r="O2" t="n">
         <v>456644.0549200309</v>
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>727377.4139934068</v>
+        <v>727377.4139934066</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26401,7 +26401,7 @@
         <v>129642.3148389447</v>
       </c>
       <c r="N3" t="n">
-        <v>1.569592313899193e-10</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26417,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>192206.5963924298</v>
+        <v>192206.5963924297</v>
       </c>
       <c r="C4" t="n">
         <v>192206.5963924297</v>
@@ -26426,10 +26426,10 @@
         <v>192206.5963924297</v>
       </c>
       <c r="E4" t="n">
-        <v>21619.60799709184</v>
+        <v>21619.60799709186</v>
       </c>
       <c r="F4" t="n">
-        <v>21619.60799709185</v>
+        <v>21619.60799709186</v>
       </c>
       <c r="G4" t="n">
         <v>21619.60799709186</v>
@@ -26438,28 +26438,28 @@
         <v>21619.60799709186</v>
       </c>
       <c r="I4" t="n">
-        <v>21619.60799709184</v>
+        <v>21619.60799709186</v>
       </c>
       <c r="J4" t="n">
-        <v>21619.60799709185</v>
+        <v>21619.60799709187</v>
       </c>
       <c r="K4" t="n">
-        <v>21619.60799709186</v>
+        <v>21619.60799709187</v>
       </c>
       <c r="L4" t="n">
         <v>21619.60799709188</v>
       </c>
       <c r="M4" t="n">
+        <v>21619.60799709187</v>
+      </c>
+      <c r="N4" t="n">
         <v>21619.60799709188</v>
       </c>
-      <c r="N4" t="n">
-        <v>21619.60799709185</v>
-      </c>
       <c r="O4" t="n">
-        <v>21619.60799709188</v>
+        <v>21619.60799709187</v>
       </c>
       <c r="P4" t="n">
-        <v>21619.60799709188</v>
+        <v>21619.60799709187</v>
       </c>
     </row>
     <row r="5">
@@ -26475,34 +26475,34 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="F5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="G5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="H5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="I5" t="n">
         <v>96383.51825371364</v>
       </c>
       <c r="J5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="K5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="L5" t="n">
         <v>96383.51825371366</v>
       </c>
       <c r="M5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="N5" t="n">
         <v>96383.51825371366</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-392934.5359984208</v>
+        <v>-392934.5359984209</v>
       </c>
       <c r="C6" t="n">
         <v>197033.3432161237</v>
       </c>
       <c r="D6" t="n">
-        <v>197033.3432161238</v>
+        <v>197033.3432161237</v>
       </c>
       <c r="E6" t="n">
-        <v>-389408.4402264394</v>
+        <v>-388803.680814407</v>
       </c>
       <c r="F6" t="n">
-        <v>337968.9737669672</v>
+        <v>338573.7331789996</v>
       </c>
       <c r="G6" t="n">
-        <v>337968.9737669675</v>
+        <v>338573.7331789996</v>
       </c>
       <c r="H6" t="n">
-        <v>337968.9737669674</v>
+        <v>338573.7331789996</v>
       </c>
       <c r="I6" t="n">
-        <v>337968.9737669674</v>
+        <v>338573.7331789995</v>
       </c>
       <c r="J6" t="n">
-        <v>161545.7545743744</v>
+        <v>162150.5139864065</v>
       </c>
       <c r="K6" t="n">
-        <v>337968.9737669677</v>
+        <v>338573.7331789997</v>
       </c>
       <c r="L6" t="n">
-        <v>337968.9737669672</v>
+        <v>338573.7331789994</v>
       </c>
       <c r="M6" t="n">
-        <v>208326.6589280226</v>
+        <v>208931.418340055</v>
       </c>
       <c r="N6" t="n">
-        <v>337968.973766967</v>
+        <v>338573.7331789994</v>
       </c>
       <c r="O6" t="n">
-        <v>337968.9737669676</v>
+        <v>338573.7331789996</v>
       </c>
       <c r="P6" t="n">
-        <v>337968.9737669674</v>
+        <v>338573.7331789995</v>
       </c>
     </row>
   </sheetData>
@@ -26740,28 +26740,28 @@
         <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
         <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="F3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="G3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="H3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="I3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="J3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="K3" t="n">
         <v>1089.776700593298</v>
@@ -26773,7 +26773,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="N3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="O3" t="n">
         <v>1089.776700593298</v>
@@ -26795,7 +26795,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
         <v>1194.51293060493</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>712.0330363762118</v>
+        <v>712.0330363762116</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26995,7 +26995,7 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>520.2256578503745</v>
+        <v>520.2256578503744</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545558</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503745</v>
+        <v>520.2256578503742</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503745</v>
+        <v>520.2256578503744</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27381,7 +27381,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>226.9689958712394</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -27393,10 +27393,10 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>78.1931633795283</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27435,7 +27435,7 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -27536,10 +27536,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>149.2278925609829</v>
       </c>
       <c r="C4" t="n">
-        <v>107.5829646831822</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27551,7 +27551,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
@@ -27581,7 +27581,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>146.6651919801578</v>
@@ -27615,13 +27615,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -27630,7 +27630,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>303.5163274490148</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
@@ -27675,13 +27675,13 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>321.9611413372962</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27779,7 +27779,7 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -27788,7 +27788,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>107.5829646831823</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
@@ -27797,7 +27797,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>33.29020080842139</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,10 +27818,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27852,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27864,16 +27864,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>396.7586141696343</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>87.16195689493816</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27900,10 +27900,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
@@ -27912,16 +27912,16 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28016,25 +28016,25 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>27.14626404539183</v>
       </c>
       <c r="I10" t="n">
-        <v>120.5017245654298</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28067,10 +28067,10 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -31284,19 +31284,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31311,13 +31311,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31384,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,16 +31436,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31460,16 +31460,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H11" t="n">
         <v>44.86703772844668</v>
@@ -31761,40 +31761,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J11" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K11" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N11" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R11" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T11" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,46 +31831,46 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H12" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I12" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K12" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O12" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q12" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R12" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S12" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U12" t="n">
         <v>0.1542136840462215</v>
@@ -31913,43 +31913,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H13" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I13" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J13" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K13" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L13" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M13" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N13" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O13" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P13" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q13" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R13" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S13" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U13" t="n">
         <v>0.1071911508780295</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H14" t="n">
         <v>44.86703772844668</v>
@@ -31998,40 +31998,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J14" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K14" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L14" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M14" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N14" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O14" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P14" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R14" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S14" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T14" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U14" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,46 +32068,46 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H15" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I15" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K15" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O15" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q15" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R15" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S15" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T15" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U15" t="n">
         <v>0.1542136840462215</v>
@@ -32150,43 +32150,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H16" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I16" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J16" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K16" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L16" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M16" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N16" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O16" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P16" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q16" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R16" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S16" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T16" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U16" t="n">
         <v>0.1071911508780295</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H17" t="n">
         <v>44.86703772844668</v>
@@ -32235,40 +32235,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J17" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K17" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L17" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M17" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N17" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O17" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P17" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q17" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R17" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S17" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T17" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U17" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,46 +32305,46 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H18" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I18" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J18" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K18" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L18" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M18" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N18" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O18" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P18" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q18" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R18" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S18" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T18" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U18" t="n">
         <v>0.1542136840462215</v>
@@ -32387,43 +32387,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H19" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I19" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J19" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K19" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L19" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M19" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N19" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O19" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P19" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q19" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R19" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S19" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T19" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U19" t="n">
         <v>0.1071911508780295</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H20" t="n">
         <v>44.86703772844668</v>
@@ -32472,40 +32472,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J20" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K20" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L20" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M20" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N20" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O20" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P20" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q20" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R20" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S20" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T20" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U20" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,46 +32542,46 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H21" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I21" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J21" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K21" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L21" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M21" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N21" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O21" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P21" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q21" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R21" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S21" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T21" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U21" t="n">
         <v>0.1542136840462215</v>
@@ -32624,43 +32624,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H22" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I22" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J22" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K22" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L22" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M22" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N22" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O22" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P22" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q22" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R22" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S22" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T22" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U22" t="n">
         <v>0.1071911508780295</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H23" t="n">
         <v>44.86703772844668</v>
@@ -32709,40 +32709,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J23" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K23" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L23" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M23" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N23" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O23" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P23" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q23" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R23" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S23" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T23" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U23" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32779,46 +32779,46 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H24" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I24" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J24" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K24" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L24" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M24" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N24" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O24" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P24" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q24" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R24" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S24" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T24" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U24" t="n">
         <v>0.1542136840462215</v>
@@ -32861,43 +32861,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H25" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I25" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J25" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K25" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L25" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M25" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N25" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O25" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P25" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q25" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R25" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S25" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T25" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U25" t="n">
         <v>0.1071911508780295</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H26" t="n">
         <v>44.86703772844668</v>
@@ -32946,40 +32946,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J26" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K26" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L26" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M26" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N26" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O26" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P26" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q26" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R26" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S26" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T26" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U26" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33016,46 +33016,46 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H27" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I27" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J27" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K27" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L27" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M27" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N27" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O27" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P27" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q27" t="n">
-        <v>299.2156706987476</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R27" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S27" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T27" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U27" t="n">
         <v>0.1542136840462215</v>
@@ -33098,43 +33098,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H28" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I28" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J28" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K28" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L28" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M28" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N28" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O28" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P28" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q28" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R28" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S28" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T28" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U28" t="n">
         <v>0.1071911508780295</v>
@@ -33885,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H38" t="n">
         <v>44.86703772844668</v>
@@ -33894,40 +33894,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J38" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K38" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L38" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M38" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N38" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O38" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P38" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q38" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R38" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S38" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T38" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U38" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33964,46 +33964,46 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H39" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I39" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J39" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K39" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L39" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M39" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N39" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O39" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P39" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q39" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R39" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S39" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T39" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U39" t="n">
         <v>0.1542136840462215</v>
@@ -34046,43 +34046,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H40" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I40" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J40" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K40" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L40" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M40" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N40" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O40" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P40" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q40" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R40" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S40" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T40" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U40" t="n">
         <v>0.1071911508780295</v>
@@ -34777,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34789,7 +34789,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>439.8839133355123</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
@@ -34798,7 +34798,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730626</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34935,19 +34935,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35026,16 +35026,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>130.3926104730635</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687127</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554006</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L11" t="n">
-        <v>873.2513289427827</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M11" t="n">
-        <v>988.4346493230594</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N11" t="n">
-        <v>910.5868268050141</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O11" t="n">
-        <v>508.0530008882193</v>
+        <v>852.755584535902</v>
       </c>
       <c r="P11" t="n">
-        <v>398.761986219372</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q11" t="n">
-        <v>463.1092954636243</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222484</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,25 +35488,25 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K12" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P12" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q12" t="n">
         <v>159.2338966127272</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K13" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L13" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M13" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N13" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O13" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P13" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q13" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687127</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K14" t="n">
-        <v>337.1912865554006</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L14" t="n">
-        <v>873.2513289427827</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M14" t="n">
-        <v>988.4346493230594</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N14" t="n">
-        <v>910.5868268050141</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O14" t="n">
-        <v>508.0530008882193</v>
+        <v>852.755584535902</v>
       </c>
       <c r="P14" t="n">
-        <v>398.761986219372</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q14" t="n">
-        <v>463.1092954636243</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222484</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,25 +35725,25 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K15" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M15" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P15" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q15" t="n">
         <v>159.2338966127272</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K16" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L16" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M16" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N16" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O16" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P16" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q16" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>359.8836161407864</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K17" t="n">
-        <v>661.3366991265653</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L17" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M17" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N17" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O17" t="n">
-        <v>852.7555845359025</v>
+        <v>852.755584535902</v>
       </c>
       <c r="P17" t="n">
-        <v>720.5606943908547</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q17" t="n">
-        <v>463.1092954636243</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R17" t="n">
-        <v>125.3296184152073</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,25 +35962,25 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K18" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L18" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M18" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N18" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O18" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P18" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q18" t="n">
         <v>159.2338966127272</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K19" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L19" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M19" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N19" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O19" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P19" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q19" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>190.7870009687127</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K20" t="n">
-        <v>337.1912865554006</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L20" t="n">
-        <v>873.2513289427827</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M20" t="n">
-        <v>988.4346493230594</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N20" t="n">
-        <v>989.6487598248957</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O20" t="n">
-        <v>575.5896386552608</v>
+        <v>852.755584535902</v>
       </c>
       <c r="P20" t="n">
-        <v>398.761986219372</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q20" t="n">
-        <v>250.7943048037196</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R20" t="n">
-        <v>125.3296184152073</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,25 +36199,25 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K21" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L21" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M21" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N21" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O21" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P21" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q21" t="n">
         <v>159.2338966127272</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K22" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L22" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M22" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N22" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O22" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P22" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q22" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36357,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>190.7870009687127</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K23" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L23" t="n">
-        <v>873.2513289427827</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M23" t="n">
-        <v>988.4346493230594</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N23" t="n">
-        <v>989.6487598248957</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O23" t="n">
-        <v>575.5896386552599</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P23" t="n">
-        <v>398.761986219372</v>
+        <v>502.5482327048853</v>
       </c>
       <c r="Q23" t="n">
-        <v>250.7943048037196</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R23" t="n">
-        <v>125.3296184152073</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K24" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L24" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M24" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N24" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O24" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P24" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q24" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K25" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L25" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M25" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N25" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O25" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P25" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q25" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36594,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>359.8836161407864</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K26" t="n">
-        <v>661.3366991265653</v>
+        <v>588.3780682237987</v>
       </c>
       <c r="L26" t="n">
-        <v>455.5901143923323</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M26" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N26" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O26" t="n">
-        <v>852.7555845359016</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P26" t="n">
-        <v>720.5606943908547</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q26" t="n">
-        <v>463.1092954636243</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R26" t="n">
-        <v>125.3296184152073</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K27" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L27" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M27" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N27" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O27" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P27" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q27" t="n">
-        <v>159.2338966127261</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36752,28 +36752,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K28" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L28" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M28" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N28" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O28" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P28" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q28" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36837,22 +36837,22 @@
         <v>661.3366991265652</v>
       </c>
       <c r="L29" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M29" t="n">
-        <v>562.7292593468621</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N29" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O29" t="n">
-        <v>508.0530008882191</v>
+        <v>852.7555845359029</v>
       </c>
       <c r="P29" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q29" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R29" t="n">
         <v>125.3296184152072</v>
@@ -37071,25 +37071,25 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K32" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L32" t="n">
-        <v>873.2513289427826</v>
+        <v>654.3055518223274</v>
       </c>
       <c r="M32" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N32" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O32" t="n">
-        <v>641.3060585282446</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P32" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q32" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R32" t="n">
         <v>59.61319854222478</v>
@@ -37320,7 +37320,7 @@
         <v>989.6487598248956</v>
       </c>
       <c r="O35" t="n">
-        <v>641.3060585282446</v>
+        <v>641.3060585282437</v>
       </c>
       <c r="P35" t="n">
         <v>398.7619862193719</v>
@@ -37542,31 +37542,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K38" t="n">
-        <v>526.991087344663</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L38" t="n">
-        <v>873.2513289427827</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M38" t="n">
-        <v>988.4346493230594</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N38" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O38" t="n">
-        <v>888.8531821509647</v>
+        <v>641.3060585282446</v>
       </c>
       <c r="P38" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q38" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R38" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,25 +37621,25 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K39" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L39" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M39" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N39" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O39" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P39" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q39" t="n">
         <v>159.2338966127272</v>
@@ -37700,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K40" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L40" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M40" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N40" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O40" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P40" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q40" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37779,10 +37779,10 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K41" t="n">
-        <v>556.5257492814169</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L41" t="n">
         <v>455.5901143923322</v>
@@ -37794,7 +37794,7 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O41" t="n">
-        <v>508.0530008882191</v>
+        <v>572.3386662151444</v>
       </c>
       <c r="P41" t="n">
         <v>720.5606943908545</v>
@@ -38019,16 +38019,16 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K44" t="n">
-        <v>635.0202028044811</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L44" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M44" t="n">
         <v>538.9211158302268</v>
       </c>
       <c r="N44" t="n">
-        <v>989.6487598248956</v>
+        <v>591.7850509906382</v>
       </c>
       <c r="O44" t="n">
         <v>888.8531821509645</v>
@@ -38037,10 +38037,10 @@
         <v>720.5606943908545</v>
       </c>
       <c r="Q44" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R44" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
